--- a/Projects/RINIELSENUS/Data/Template_2019 SPT Baseline_v1.02.xlsx
+++ b/Projects/RINIELSENUS/Data/Template_2019 SPT Baseline_v1.02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="change log" sheetId="1" state="visible" r:id="rId2"/>
@@ -60,6 +60,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hierarchy!$A$1:$L$120</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$L$130</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hierarchy!$A$1:$L$130</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hierarchy!$A$1:$L$130</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">NBIL!$A$1:$F$894</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">NBIL!$A$1:$F$894</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">NBIL!$A$1:$F$894</definedName>
@@ -79,6 +80,7 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">NBIL!$A$1:$F$894</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">NBIL!$A$1:$F$894</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">NBIL!$A$1:$F$894</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">NBIL!$A$1:$F$894</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Block!$A$1:$R$57</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$R$57</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$R$57</definedName>
@@ -98,6 +100,7 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$R$56</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$R$63</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Block!$A$1:$R$63</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$R$63</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
@@ -117,6 +120,7 @@
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$V$1</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
@@ -136,6 +140,7 @@
     <definedName function="false" hidden="false" localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Linear fair share'!$A$1:$J$16</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_FilterDatabase_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_FilterDatabase_0_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_FilterDatabase_0_0_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
@@ -155,6 +160,7 @@
     <definedName function="false" hidden="false" localSheetId="18" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
+    <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Segment_LU!$C$2:$E$1005</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -6810,7 +6816,7 @@
     <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6908,12 +6914,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -7269,7 +7269,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7554,10 +7554,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7570,11 +7566,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7690,7 +7686,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7698,15 +7694,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7816,16 +7812,16 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M23:M63 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.6275303643725"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
@@ -8030,28 +8026,28 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="M23:M63 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.4048582995952"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.3886639676113"/>
@@ -8095,7 +8091,7 @@
       <c r="L1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="88" t="s">
         <v>745</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -8116,10 +8112,10 @@
       <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="90" t="s">
+      <c r="T1" s="89" t="s">
         <v>747</v>
       </c>
-      <c r="U1" s="90" t="s">
+      <c r="U1" s="89" t="s">
         <v>748</v>
       </c>
     </row>
@@ -8144,13 +8140,13 @@
       </c>
       <c r="J2" s="6"/>
       <c r="O2" s="50"/>
-      <c r="S2" s="91" t="n">
+      <c r="S2" s="90" t="n">
         <v>0.5</v>
       </c>
       <c r="T2" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U2" s="91" t="n">
+      <c r="U2" s="90" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="13"/>
@@ -8176,13 +8172,13 @@
       </c>
       <c r="J3" s="6"/>
       <c r="O3" s="50"/>
-      <c r="S3" s="91" t="n">
+      <c r="S3" s="90" t="n">
         <v>0.5</v>
       </c>
       <c r="T3" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U3" s="91" t="n">
+      <c r="U3" s="90" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="13"/>
@@ -8198,33 +8194,33 @@
       <c r="D4" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="91"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="50" t="s">
         <v>729</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
       <c r="O4" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91" t="n">
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90" t="n">
         <v>0.5</v>
       </c>
       <c r="T4" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U4" s="91" t="n">
+      <c r="U4" s="90" t="n">
         <v>0</v>
       </c>
       <c r="V4" s="13"/>
@@ -8233,14 +8229,14 @@
       <c r="A5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="91" t="s">
         <v>174</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="92" t="s">
         <v>225</v>
       </c>
       <c r="H5" s="50" t="s">
@@ -8249,13 +8245,13 @@
       <c r="O5" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="S5" s="91" t="n">
+      <c r="S5" s="90" t="n">
         <v>0.5</v>
       </c>
       <c r="T5" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U5" s="91" t="n">
+      <c r="U5" s="90" t="n">
         <v>0</v>
       </c>
       <c r="V5" s="13"/>
@@ -8264,14 +8260,14 @@
       <c r="A6" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>178</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="92" t="s">
         <v>232</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -8280,13 +8276,13 @@
       <c r="O6" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="S6" s="91" t="n">
+      <c r="S6" s="90" t="n">
         <v>0.5</v>
       </c>
       <c r="T6" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U6" s="91" t="n">
+      <c r="U6" s="90" t="n">
         <v>0</v>
       </c>
       <c r="V6" s="13"/>
@@ -8302,7 +8298,7 @@
       <c r="D7" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="92" t="s">
         <v>244</v>
       </c>
       <c r="G7" s="0" t="s">
@@ -8314,13 +8310,13 @@
       <c r="O7" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="S7" s="91" t="n">
+      <c r="S7" s="90" t="n">
         <v>0.5</v>
       </c>
       <c r="T7" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U7" s="91" t="n">
+      <c r="U7" s="90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8338,7 +8334,7 @@
       <c r="E8" s="0" t="s">
         <v>726</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="92" t="s">
         <v>244</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -8347,13 +8343,13 @@
       <c r="O8" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="S8" s="91" t="n">
+      <c r="S8" s="90" t="n">
         <v>0.5</v>
       </c>
       <c r="T8" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U8" s="91" t="n">
+      <c r="U8" s="90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8368,20 +8364,20 @@
       <c r="D9" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="92" t="s">
         <v>225</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>224</v>
       </c>
       <c r="O9" s="50"/>
-      <c r="S9" s="94" t="n">
+      <c r="S9" s="93" t="n">
         <v>0.5</v>
       </c>
       <c r="T9" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U9" s="91" t="n">
+      <c r="U9" s="90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8392,10 +8388,10 @@
       <c r="B10" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="92" t="s">
         <v>241</v>
       </c>
       <c r="G10" s="0" t="s">
@@ -8407,13 +8403,13 @@
       <c r="R10" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="S10" s="94" t="n">
+      <c r="S10" s="93" t="n">
         <v>0.5</v>
       </c>
       <c r="T10" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U10" s="91" t="n">
+      <c r="U10" s="90" t="n">
         <v>0</v>
       </c>
       <c r="V10" s="0" t="s">
@@ -8427,10 +8423,10 @@
       <c r="B11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="92" t="s">
         <v>241</v>
       </c>
       <c r="G11" s="0" t="s">
@@ -8442,13 +8438,13 @@
       <c r="R11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="S11" s="94" t="n">
+      <c r="S11" s="93" t="n">
         <v>0.5</v>
       </c>
       <c r="T11" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="U11" s="91" t="n">
+      <c r="U11" s="90" t="n">
         <v>0</v>
       </c>
       <c r="V11" s="0" t="s">
@@ -8486,22 +8482,22 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+      <selection pane="topLeft" activeCell="N6" activeCellId="1" sqref="M23:M63 N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.78542510121457"/>
   </cols>
@@ -8552,20 +8548,20 @@
         <v>95</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>201</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="95" t="s">
         <v>224</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="95" t="s">
         <v>704</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="95" t="s">
         <v>756</v>
       </c>
       <c r="L2" s="0" t="n">
@@ -8582,13 +8578,13 @@
       <c r="B3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="95" t="s">
         <v>201</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="95" t="s">
         <v>704</v>
       </c>
       <c r="K3" s="68" t="s">
@@ -8620,19 +8616,19 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="M23:M63 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.1943319838057"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.9473684210526"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
   </cols>
@@ -8673,7 +8669,7 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -8682,19 +8678,19 @@
       <c r="E2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="97" t="s">
         <v>758</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="99"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" customFormat="false" ht="176" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="99" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -8703,19 +8699,19 @@
       <c r="E3" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="97" t="s">
         <v>759</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I3" s="99"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -8724,19 +8720,19 @@
       <c r="E4" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="97" t="s">
         <v>758</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I4" s="99"/>
+      <c r="I4" s="98"/>
     </row>
     <row r="5" customFormat="false" ht="176" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="99" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -8745,19 +8741,19 @@
       <c r="E5" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="97" t="s">
         <v>759</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I5" s="99"/>
+      <c r="I5" s="98"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="100" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -8770,7 +8766,7 @@
       <c r="H6" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="99"/>
+      <c r="I6" s="98"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -8789,7 +8785,7 @@
       <c r="H7" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="99"/>
+      <c r="I7" s="98"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -8808,7 +8804,7 @@
       <c r="H8" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I8" s="99"/>
+      <c r="I8" s="98"/>
     </row>
     <row r="9" customFormat="false" ht="288" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -8823,13 +8819,13 @@
       <c r="E9" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="97" t="s">
         <v>760</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="99"/>
+      <c r="I9" s="98"/>
     </row>
     <row r="10" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
@@ -8844,19 +8840,19 @@
       <c r="E10" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="97" t="s">
         <v>761</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I10" s="99"/>
+      <c r="I10" s="98"/>
     </row>
     <row r="11" customFormat="false" ht="335" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8865,19 +8861,19 @@
       <c r="E11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="98" t="s">
+      <c r="G11" s="97" t="s">
         <v>762</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="99"/>
+      <c r="I11" s="98"/>
     </row>
     <row r="12" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="99" t="s">
         <v>141</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -8886,13 +8882,13 @@
       <c r="E12" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="97" t="s">
         <v>763</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I12" s="99"/>
+      <c r="I12" s="98"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
@@ -8911,7 +8907,7 @@
       <c r="H13" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I13" s="99"/>
+      <c r="I13" s="98"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
@@ -8930,13 +8926,13 @@
       <c r="H14" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I14" s="99"/>
+      <c r="I14" s="98"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="101" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -8949,7 +8945,7 @@
       <c r="H15" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="99"/>
+      <c r="I15" s="98"/>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
@@ -8967,7 +8963,7 @@
       <c r="G16" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="102" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8998,17 +8994,17 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="M23:M63 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -9063,7 +9059,7 @@
       <c r="A3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>157</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -9096,16 +9092,16 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="M23:M63 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
@@ -9149,23 +9145,23 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="M23:M63 N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.1619433198381"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.8016194331984"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="128.971659919028"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="130.14979757085"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.78542510121457"/>
   </cols>
@@ -9230,17 +9226,17 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="M23:M63 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -9287,69 +9283,69 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="1" sqref="M23:M63 E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="104" t="s">
         <v>765</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="104" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="85" t="n">
+      <c r="B2" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="85" t="n">
+      <c r="C2" s="84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="106" t="n">
+      <c r="A3" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="n">
+      <c r="C3" s="105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="106" t="n">
+      <c r="B4" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="106" t="n">
+      <c r="C4" s="105" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="106" t="n">
+      <c r="B5" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="n">
+      <c r="C5" s="105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9372,30 +9368,30 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="M23:M63 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -9447,28 +9443,28 @@
   </sheetPr>
   <dimension ref="A1:E1005"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="M23:M63 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="107" t="s">
         <v>767</v>
       </c>
       <c r="E1" s="0" t="s">
@@ -9476,13 +9472,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>769</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="108" t="s">
         <v>770</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="108" t="s">
         <v>771</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -20689,21 +20685,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C121" activeCellId="0" sqref="C121"/>
+      <selection pane="bottomLeft" activeCell="C121" activeCellId="1" sqref="M23:M63 C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.4129554655871"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.5951417004049"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.78542510121457"/>
   </cols>
@@ -25077,18 +25073,18 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="M23:M63 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="63" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="63" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="63" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="63" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="63" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="63" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="63" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="63" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="63" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="63" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="63" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="63" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="63" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="63" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -25419,28 +25415,28 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="M23:M63 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="13" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="13" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="13" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="13" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="13" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="13" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="13" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="13" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="13" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="13" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="13" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="13" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="13" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -25545,27 +25541,27 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="1" sqref="M23:M63 K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.9473684210526"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -25764,7 +25760,7 @@
         <v>205</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="8" t="s">
         <v>232</v>
       </c>
       <c r="K6" s="12" t="s">
@@ -25783,7 +25779,7 @@
       <c r="A7" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>164</v>
       </c>
       <c r="D7" s="8"/>
@@ -25830,18 +25826,18 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="M23:M63 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
@@ -26159,19 +26155,19 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M23:M63 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="91.3724696356275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.1214574898785"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
@@ -26209,7 +26205,7 @@
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>105</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -26304,7 +26300,7 @@
       <c r="A7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>184</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -26338,38 +26334,38 @@
   <dimension ref="A1:F894"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="M23:M63 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="13" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="957" min="7" style="13" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="958" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="75" t="s">
         <v>250</v>
       </c>
     </row>
@@ -31694,7 +31690,7 @@
       <c r="F443" s="0"/>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B444" s="77" t="s">
+      <c r="B444" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D444" s="0" t="s">
@@ -31706,7 +31702,7 @@
       <c r="F444" s="0"/>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B445" s="77" t="s">
+      <c r="B445" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D445" s="0" t="s">
@@ -31718,7 +31714,7 @@
       <c r="F445" s="0"/>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B446" s="77" t="s">
+      <c r="B446" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D446" s="0" t="s">
@@ -31730,7 +31726,7 @@
       <c r="F446" s="0"/>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B447" s="77" t="s">
+      <c r="B447" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D447" s="0" t="s">
@@ -31742,7 +31738,7 @@
       <c r="F447" s="0"/>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B448" s="77" t="s">
+      <c r="B448" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D448" s="0" t="s">
@@ -31754,7 +31750,7 @@
       <c r="F448" s="0"/>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B449" s="77" t="s">
+      <c r="B449" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D449" s="0" t="s">
@@ -31766,7 +31762,7 @@
       <c r="F449" s="0"/>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B450" s="77" t="s">
+      <c r="B450" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D450" s="0" t="s">
@@ -31778,7 +31774,7 @@
       <c r="F450" s="0"/>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B451" s="77" t="s">
+      <c r="B451" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D451" s="0" t="s">
@@ -31790,7 +31786,7 @@
       <c r="F451" s="0"/>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B452" s="77" t="s">
+      <c r="B452" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D452" s="0" t="s">
@@ -31802,7 +31798,7 @@
       <c r="F452" s="0"/>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B453" s="77" t="s">
+      <c r="B453" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D453" s="0" t="s">
@@ -31814,7 +31810,7 @@
       <c r="F453" s="0"/>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B454" s="77" t="s">
+      <c r="B454" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D454" s="0" t="s">
@@ -31826,7 +31822,7 @@
       <c r="F454" s="0"/>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B455" s="77" t="s">
+      <c r="B455" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D455" s="0" t="s">
@@ -31838,7 +31834,7 @@
       <c r="F455" s="0"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B456" s="77" t="s">
+      <c r="B456" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D456" s="0" t="s">
@@ -31850,7 +31846,7 @@
       <c r="F456" s="0"/>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B457" s="77" t="s">
+      <c r="B457" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D457" s="0" t="s">
@@ -31862,7 +31858,7 @@
       <c r="F457" s="0"/>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B458" s="77" t="s">
+      <c r="B458" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D458" s="0" t="s">
@@ -31874,7 +31870,7 @@
       <c r="F458" s="0"/>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B459" s="77" t="s">
+      <c r="B459" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D459" s="0" t="s">
@@ -31886,7 +31882,7 @@
       <c r="F459" s="0"/>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B460" s="77" t="s">
+      <c r="B460" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D460" s="0" t="s">
@@ -31898,7 +31894,7 @@
       <c r="F460" s="0"/>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B461" s="77" t="s">
+      <c r="B461" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D461" s="0" t="s">
@@ -31910,7 +31906,7 @@
       <c r="F461" s="0"/>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B462" s="77" t="s">
+      <c r="B462" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D462" s="0" t="s">
@@ -31922,7 +31918,7 @@
       <c r="F462" s="0"/>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B463" s="77" t="s">
+      <c r="B463" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D463" s="0" t="s">
@@ -31934,7 +31930,7 @@
       <c r="F463" s="0"/>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B464" s="77" t="s">
+      <c r="B464" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D464" s="0" t="s">
@@ -31946,7 +31942,7 @@
       <c r="F464" s="0"/>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B465" s="77" t="s">
+      <c r="B465" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D465" s="0" t="s">
@@ -31958,7 +31954,7 @@
       <c r="F465" s="0"/>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B466" s="77" t="s">
+      <c r="B466" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D466" s="0" t="s">
@@ -31970,7 +31966,7 @@
       <c r="F466" s="0"/>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B467" s="77" t="s">
+      <c r="B467" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D467" s="0" t="s">
@@ -31982,7 +31978,7 @@
       <c r="F467" s="0"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B468" s="77" t="s">
+      <c r="B468" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D468" s="0" t="s">
@@ -31994,7 +31990,7 @@
       <c r="F468" s="0"/>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B469" s="77" t="s">
+      <c r="B469" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D469" s="0" t="s">
@@ -32006,7 +32002,7 @@
       <c r="F469" s="0"/>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="77" t="s">
+      <c r="B470" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D470" s="0" t="s">
@@ -32018,7 +32014,7 @@
       <c r="F470" s="0"/>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B471" s="77" t="s">
+      <c r="B471" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D471" s="0" t="s">
@@ -32030,7 +32026,7 @@
       <c r="F471" s="0"/>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B472" s="77" t="s">
+      <c r="B472" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D472" s="0" t="s">
@@ -32042,7 +32038,7 @@
       <c r="F472" s="0"/>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B473" s="77" t="s">
+      <c r="B473" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D473" s="0" t="s">
@@ -32054,7 +32050,7 @@
       <c r="F473" s="0"/>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B474" s="77" t="s">
+      <c r="B474" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D474" s="0" t="s">
@@ -32066,7 +32062,7 @@
       <c r="F474" s="0"/>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B475" s="77" t="s">
+      <c r="B475" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D475" s="0" t="s">
@@ -32078,7 +32074,7 @@
       <c r="F475" s="0"/>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B476" s="77" t="s">
+      <c r="B476" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D476" s="0" t="s">
@@ -32090,7 +32086,7 @@
       <c r="F476" s="0"/>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B477" s="77" t="s">
+      <c r="B477" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D477" s="0" t="s">
@@ -32102,7 +32098,7 @@
       <c r="F477" s="0"/>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B478" s="77" t="s">
+      <c r="B478" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D478" s="0" t="s">
@@ -32114,7 +32110,7 @@
       <c r="F478" s="0"/>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B479" s="77" t="s">
+      <c r="B479" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D479" s="0" t="s">
@@ -32126,7 +32122,7 @@
       <c r="F479" s="0"/>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B480" s="77" t="s">
+      <c r="B480" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D480" s="0" t="s">
@@ -32138,7 +32134,7 @@
       <c r="F480" s="0"/>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B481" s="77" t="s">
+      <c r="B481" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D481" s="0" t="s">
@@ -32150,7 +32146,7 @@
       <c r="F481" s="0"/>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B482" s="77" t="s">
+      <c r="B482" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D482" s="0" t="s">
@@ -32162,7 +32158,7 @@
       <c r="F482" s="0"/>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B483" s="77" t="s">
+      <c r="B483" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D483" s="0" t="s">
@@ -32174,7 +32170,7 @@
       <c r="F483" s="0"/>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B484" s="77" t="s">
+      <c r="B484" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D484" s="0" t="s">
@@ -32186,7 +32182,7 @@
       <c r="F484" s="0"/>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B485" s="77" t="s">
+      <c r="B485" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D485" s="0" t="s">
@@ -32198,7 +32194,7 @@
       <c r="F485" s="0"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B486" s="77" t="s">
+      <c r="B486" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D486" s="0" t="s">
@@ -32210,7 +32206,7 @@
       <c r="F486" s="0"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B487" s="77" t="s">
+      <c r="B487" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D487" s="0" t="s">
@@ -32222,7 +32218,7 @@
       <c r="F487" s="0"/>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B488" s="77" t="s">
+      <c r="B488" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D488" s="0" t="s">
@@ -32234,7 +32230,7 @@
       <c r="F488" s="0"/>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B489" s="77" t="s">
+      <c r="B489" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D489" s="0" t="s">
@@ -32246,7 +32242,7 @@
       <c r="F489" s="0"/>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B490" s="77" t="s">
+      <c r="B490" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D490" s="0" t="s">
@@ -32258,7 +32254,7 @@
       <c r="F490" s="0"/>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B491" s="77" t="s">
+      <c r="B491" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D491" s="0" t="s">
@@ -32270,7 +32266,7 @@
       <c r="F491" s="0"/>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B492" s="77" t="s">
+      <c r="B492" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D492" s="0" t="s">
@@ -32282,7 +32278,7 @@
       <c r="F492" s="0"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B493" s="77" t="s">
+      <c r="B493" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D493" s="0" t="s">
@@ -32294,7 +32290,7 @@
       <c r="F493" s="0"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B494" s="77" t="s">
+      <c r="B494" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D494" s="0" t="s">
@@ -32306,7 +32302,7 @@
       <c r="F494" s="0"/>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B495" s="77" t="s">
+      <c r="B495" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D495" s="0" t="s">
@@ -32318,7 +32314,7 @@
       <c r="F495" s="0"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B496" s="77" t="s">
+      <c r="B496" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D496" s="0" t="s">
@@ -32330,7 +32326,7 @@
       <c r="F496" s="0"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B497" s="77" t="s">
+      <c r="B497" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D497" s="0" t="s">
@@ -32342,7 +32338,7 @@
       <c r="F497" s="0"/>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B498" s="77" t="s">
+      <c r="B498" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D498" s="0" t="s">
@@ -32354,7 +32350,7 @@
       <c r="F498" s="0"/>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B499" s="77" t="s">
+      <c r="B499" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D499" s="0" t="s">
@@ -32366,7 +32362,7 @@
       <c r="F499" s="0"/>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B500" s="77" t="s">
+      <c r="B500" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D500" s="0" t="s">
@@ -32378,7 +32374,7 @@
       <c r="F500" s="0"/>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B501" s="77" t="s">
+      <c r="B501" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D501" s="0" t="s">
@@ -32390,7 +32386,7 @@
       <c r="F501" s="0"/>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B502" s="77" t="s">
+      <c r="B502" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D502" s="0" t="s">
@@ -32402,7 +32398,7 @@
       <c r="F502" s="0"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B503" s="77" t="s">
+      <c r="B503" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D503" s="0" t="s">
@@ -32414,7 +32410,7 @@
       <c r="F503" s="0"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B504" s="77" t="s">
+      <c r="B504" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D504" s="0" t="s">
@@ -32426,7 +32422,7 @@
       <c r="F504" s="0"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B505" s="77" t="s">
+      <c r="B505" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D505" s="0" t="s">
@@ -32438,7 +32434,7 @@
       <c r="F505" s="0"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B506" s="77" t="s">
+      <c r="B506" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D506" s="0" t="s">
@@ -32450,7 +32446,7 @@
       <c r="F506" s="0"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B507" s="77" t="s">
+      <c r="B507" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D507" s="0" t="s">
@@ -32462,7 +32458,7 @@
       <c r="F507" s="0"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B508" s="77" t="s">
+      <c r="B508" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D508" s="0" t="s">
@@ -32474,7 +32470,7 @@
       <c r="F508" s="0"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B509" s="77" t="s">
+      <c r="B509" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D509" s="0" t="s">
@@ -32486,7 +32482,7 @@
       <c r="F509" s="0"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B510" s="77" t="s">
+      <c r="B510" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D510" s="0" t="s">
@@ -32498,7 +32494,7 @@
       <c r="F510" s="0"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B511" s="77" t="s">
+      <c r="B511" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D511" s="65" t="s">
@@ -32510,7 +32506,7 @@
       <c r="F511" s="0"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B512" s="77" t="s">
+      <c r="B512" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D512" s="65" t="s">
@@ -32522,7 +32518,7 @@
       <c r="F512" s="0"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B513" s="77" t="s">
+      <c r="B513" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D513" s="65" t="s">
@@ -32534,7 +32530,7 @@
       <c r="F513" s="0"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B514" s="77" t="s">
+      <c r="B514" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D514" s="65" t="s">
@@ -32546,7 +32542,7 @@
       <c r="F514" s="0"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="77" t="s">
+      <c r="B515" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D515" s="65" t="s">
@@ -32558,7 +32554,7 @@
       <c r="F515" s="0"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B516" s="77" t="s">
+      <c r="B516" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D516" s="65" t="s">
@@ -32570,7 +32566,7 @@
       <c r="F516" s="0"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B517" s="77" t="s">
+      <c r="B517" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D517" s="65" t="s">
@@ -32582,7 +32578,7 @@
       <c r="F517" s="0"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B518" s="77" t="s">
+      <c r="B518" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D518" s="65" t="s">
@@ -32594,7 +32590,7 @@
       <c r="F518" s="0"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B519" s="77" t="s">
+      <c r="B519" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D519" s="65" t="s">
@@ -32606,7 +32602,7 @@
       <c r="F519" s="0"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B520" s="77" t="s">
+      <c r="B520" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D520" s="65" t="s">
@@ -32618,7 +32614,7 @@
       <c r="F520" s="0"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B521" s="77" t="s">
+      <c r="B521" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D521" s="65" t="s">
@@ -32630,7 +32626,7 @@
       <c r="F521" s="0"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B522" s="77" t="s">
+      <c r="B522" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D522" s="65" t="s">
@@ -32642,7 +32638,7 @@
       <c r="F522" s="0"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B523" s="77" t="s">
+      <c r="B523" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D523" s="65" t="s">
@@ -32654,7 +32650,7 @@
       <c r="F523" s="0"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B524" s="77" t="s">
+      <c r="B524" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D524" s="65" t="s">
@@ -32666,7 +32662,7 @@
       <c r="F524" s="0"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B525" s="77" t="s">
+      <c r="B525" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D525" s="65" t="s">
@@ -32678,7 +32674,7 @@
       <c r="F525" s="0"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B526" s="77" t="s">
+      <c r="B526" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D526" s="65" t="s">
@@ -32690,7 +32686,7 @@
       <c r="F526" s="0"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B527" s="77" t="s">
+      <c r="B527" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D527" s="65" t="s">
@@ -32702,7 +32698,7 @@
       <c r="F527" s="0"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B528" s="77" t="s">
+      <c r="B528" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D528" s="65" t="s">
@@ -32714,7 +32710,7 @@
       <c r="F528" s="0"/>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B529" s="77" t="s">
+      <c r="B529" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D529" s="65" t="s">
@@ -32726,7 +32722,7 @@
       <c r="F529" s="0"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B530" s="77" t="s">
+      <c r="B530" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D530" s="65" t="s">
@@ -32738,7 +32734,7 @@
       <c r="F530" s="0"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B531" s="77" t="s">
+      <c r="B531" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D531" s="65" t="s">
@@ -32750,7 +32746,7 @@
       <c r="F531" s="0"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B532" s="77" t="s">
+      <c r="B532" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D532" s="65" t="s">
@@ -32762,7 +32758,7 @@
       <c r="F532" s="0"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B533" s="77" t="s">
+      <c r="B533" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D533" s="65" t="s">
@@ -32774,7 +32770,7 @@
       <c r="F533" s="0"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B534" s="77" t="s">
+      <c r="B534" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D534" s="65" t="s">
@@ -32786,7 +32782,7 @@
       <c r="F534" s="0"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B535" s="77" t="s">
+      <c r="B535" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D535" s="65" t="s">
@@ -32798,7 +32794,7 @@
       <c r="F535" s="0"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B536" s="77" t="s">
+      <c r="B536" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D536" s="65" t="s">
@@ -32810,7 +32806,7 @@
       <c r="F536" s="0"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B537" s="77" t="s">
+      <c r="B537" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D537" s="65" t="s">
@@ -32822,7 +32818,7 @@
       <c r="F537" s="0"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B538" s="77" t="s">
+      <c r="B538" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D538" s="65" t="s">
@@ -32834,7 +32830,7 @@
       <c r="F538" s="0"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B539" s="77" t="s">
+      <c r="B539" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D539" s="65" t="s">
@@ -32846,7 +32842,7 @@
       <c r="F539" s="0"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B540" s="77" t="s">
+      <c r="B540" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D540" s="65" t="s">
@@ -32858,7 +32854,7 @@
       <c r="F540" s="0"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B541" s="77" t="s">
+      <c r="B541" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D541" s="65" t="s">
@@ -32870,7 +32866,7 @@
       <c r="F541" s="0"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B542" s="77" t="s">
+      <c r="B542" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D542" s="65" t="s">
@@ -32882,7 +32878,7 @@
       <c r="F542" s="0"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B543" s="77" t="s">
+      <c r="B543" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D543" s="65" t="s">
@@ -32894,7 +32890,7 @@
       <c r="F543" s="0"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B544" s="77" t="s">
+      <c r="B544" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D544" s="65" t="s">
@@ -32906,7 +32902,7 @@
       <c r="F544" s="0"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B545" s="77" t="s">
+      <c r="B545" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D545" s="65" t="s">
@@ -32918,7 +32914,7 @@
       <c r="F545" s="0"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B546" s="77" t="s">
+      <c r="B546" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D546" s="65" t="s">
@@ -32930,7 +32926,7 @@
       <c r="F546" s="0"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B547" s="77" t="s">
+      <c r="B547" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D547" s="65" t="s">
@@ -32942,7 +32938,7 @@
       <c r="F547" s="0"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B548" s="77" t="s">
+      <c r="B548" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D548" s="65" t="s">
@@ -32954,7 +32950,7 @@
       <c r="F548" s="0"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B549" s="77" t="s">
+      <c r="B549" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D549" s="65" t="s">
@@ -32966,7 +32962,7 @@
       <c r="F549" s="0"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B550" s="77" t="s">
+      <c r="B550" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D550" s="65" t="s">
@@ -32978,7 +32974,7 @@
       <c r="F550" s="0"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B551" s="77" t="s">
+      <c r="B551" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D551" s="65" t="s">
@@ -32990,7 +32986,7 @@
       <c r="F551" s="0"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B552" s="77" t="s">
+      <c r="B552" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D552" s="65" t="s">
@@ -33002,7 +32998,7 @@
       <c r="F552" s="0"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B553" s="77" t="s">
+      <c r="B553" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D553" s="65" t="s">
@@ -33014,7 +33010,7 @@
       <c r="F553" s="0"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B554" s="77" t="s">
+      <c r="B554" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D554" s="65" t="s">
@@ -33026,7 +33022,7 @@
       <c r="F554" s="0"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B555" s="77" t="s">
+      <c r="B555" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D555" s="65" t="s">
@@ -33038,7 +33034,7 @@
       <c r="F555" s="0"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B556" s="77" t="s">
+      <c r="B556" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D556" s="65" t="s">
@@ -33050,7 +33046,7 @@
       <c r="F556" s="0"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B557" s="77" t="s">
+      <c r="B557" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D557" s="65" t="s">
@@ -33062,7 +33058,7 @@
       <c r="F557" s="0"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B558" s="77" t="s">
+      <c r="B558" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D558" s="65" t="s">
@@ -33074,7 +33070,7 @@
       <c r="F558" s="0"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B559" s="77" t="s">
+      <c r="B559" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D559" s="65" t="s">
@@ -33086,7 +33082,7 @@
       <c r="F559" s="0"/>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B560" s="77" t="s">
+      <c r="B560" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D560" s="65" t="s">
@@ -33098,7 +33094,7 @@
       <c r="F560" s="0"/>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B561" s="77" t="s">
+      <c r="B561" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D561" s="65" t="s">
@@ -33110,7 +33106,7 @@
       <c r="F561" s="0"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B562" s="77" t="s">
+      <c r="B562" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D562" s="65" t="s">
@@ -33122,7 +33118,7 @@
       <c r="F562" s="0"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B563" s="77" t="s">
+      <c r="B563" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D563" s="65" t="s">
@@ -33134,7 +33130,7 @@
       <c r="F563" s="0"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B564" s="77" t="s">
+      <c r="B564" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D564" s="65" t="s">
@@ -33146,7 +33142,7 @@
       <c r="F564" s="0"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B565" s="77" t="s">
+      <c r="B565" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D565" s="65" t="s">
@@ -33158,7 +33154,7 @@
       <c r="F565" s="0"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B566" s="77" t="s">
+      <c r="B566" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D566" s="65" t="s">
@@ -33170,7 +33166,7 @@
       <c r="F566" s="0"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B567" s="77" t="s">
+      <c r="B567" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D567" s="65" t="s">
@@ -33182,7 +33178,7 @@
       <c r="F567" s="0"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B568" s="77" t="s">
+      <c r="B568" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D568" s="65" t="s">
@@ -33194,7 +33190,7 @@
       <c r="F568" s="0"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B569" s="77" t="s">
+      <c r="B569" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D569" s="65" t="s">
@@ -33206,7 +33202,7 @@
       <c r="F569" s="0"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B570" s="77" t="s">
+      <c r="B570" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D570" s="65" t="s">
@@ -33218,7 +33214,7 @@
       <c r="F570" s="0"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B571" s="77" t="s">
+      <c r="B571" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D571" s="65" t="s">
@@ -33230,7 +33226,7 @@
       <c r="F571" s="0"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B572" s="77" t="s">
+      <c r="B572" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D572" s="65" t="s">
@@ -33242,7 +33238,7 @@
       <c r="F572" s="0"/>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B573" s="77" t="s">
+      <c r="B573" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D573" s="65" t="s">
@@ -33254,7 +33250,7 @@
       <c r="F573" s="0"/>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B574" s="77" t="s">
+      <c r="B574" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D574" s="65" t="s">
@@ -33266,7 +33262,7 @@
       <c r="F574" s="0"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B575" s="77" t="s">
+      <c r="B575" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D575" s="65" t="s">
@@ -33278,7 +33274,7 @@
       <c r="F575" s="0"/>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B576" s="77" t="s">
+      <c r="B576" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D576" s="65" t="s">
@@ -33290,7 +33286,7 @@
       <c r="F576" s="0"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B577" s="77" t="s">
+      <c r="B577" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D577" s="65" t="s">
@@ -33302,7 +33298,7 @@
       <c r="F577" s="0"/>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B578" s="77" t="s">
+      <c r="B578" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D578" s="65" t="s">
@@ -33314,7 +33310,7 @@
       <c r="F578" s="0"/>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B579" s="77" t="s">
+      <c r="B579" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D579" s="65" t="s">
@@ -33326,7 +33322,7 @@
       <c r="F579" s="0"/>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B580" s="77" t="s">
+      <c r="B580" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D580" s="65" t="s">
@@ -33338,7 +33334,7 @@
       <c r="F580" s="0"/>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B581" s="77" t="s">
+      <c r="B581" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D581" s="65" t="s">
@@ -33347,10 +33343,10 @@
       <c r="E581" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="F581" s="78"/>
+      <c r="F581" s="77"/>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B582" s="77" t="s">
+      <c r="B582" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D582" s="65" t="s">
@@ -33359,10 +33355,10 @@
       <c r="E582" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="F582" s="78"/>
+      <c r="F582" s="77"/>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B583" s="77" t="s">
+      <c r="B583" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D583" s="65" t="s">
@@ -33371,10 +33367,10 @@
       <c r="E583" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="F583" s="78"/>
+      <c r="F583" s="77"/>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B584" s="77" t="s">
+      <c r="B584" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D584" s="65" t="s">
@@ -33383,10 +33379,10 @@
       <c r="E584" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="F584" s="78"/>
+      <c r="F584" s="77"/>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B585" s="77" t="s">
+      <c r="B585" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D585" s="65" t="s">
@@ -33395,10 +33391,10 @@
       <c r="E585" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="F585" s="78"/>
+      <c r="F585" s="77"/>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B586" s="77" t="s">
+      <c r="B586" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D586" s="65" t="s">
@@ -33407,10 +33403,10 @@
       <c r="E586" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="F586" s="78"/>
+      <c r="F586" s="77"/>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B587" s="77" t="s">
+      <c r="B587" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D587" s="65" t="s">
@@ -33419,10 +33415,10 @@
       <c r="E587" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="F587" s="78"/>
+      <c r="F587" s="77"/>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B588" s="77" t="s">
+      <c r="B588" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D588" s="65" t="s">
@@ -33431,10 +33427,10 @@
       <c r="E588" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="F588" s="78"/>
+      <c r="F588" s="77"/>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B589" s="77" t="s">
+      <c r="B589" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D589" s="65" t="s">
@@ -33443,10 +33439,10 @@
       <c r="E589" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F589" s="78"/>
+      <c r="F589" s="77"/>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B590" s="77" t="s">
+      <c r="B590" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D590" s="65" t="s">
@@ -33455,10 +33451,10 @@
       <c r="E590" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="F590" s="78"/>
+      <c r="F590" s="77"/>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B591" s="77" t="s">
+      <c r="B591" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D591" s="65" t="s">
@@ -33467,10 +33463,10 @@
       <c r="E591" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="F591" s="78"/>
+      <c r="F591" s="77"/>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B592" s="77" t="s">
+      <c r="B592" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D592" s="65" t="s">
@@ -33479,10 +33475,10 @@
       <c r="E592" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F592" s="78"/>
+      <c r="F592" s="77"/>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B593" s="77" t="s">
+      <c r="B593" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D593" s="65" t="s">
@@ -33491,10 +33487,10 @@
       <c r="E593" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="F593" s="78"/>
+      <c r="F593" s="77"/>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B594" s="77" t="s">
+      <c r="B594" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D594" s="65" t="s">
@@ -33503,10 +33499,10 @@
       <c r="E594" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="F594" s="78"/>
+      <c r="F594" s="77"/>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B595" s="77" t="s">
+      <c r="B595" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D595" s="65" t="s">
@@ -33515,10 +33511,10 @@
       <c r="E595" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="F595" s="78"/>
+      <c r="F595" s="77"/>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B596" s="77" t="s">
+      <c r="B596" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D596" s="65" t="s">
@@ -33527,10 +33523,10 @@
       <c r="E596" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="F596" s="78"/>
+      <c r="F596" s="77"/>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B597" s="77" t="s">
+      <c r="B597" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D597" s="65" t="s">
@@ -33539,10 +33535,10 @@
       <c r="E597" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="F597" s="78"/>
+      <c r="F597" s="77"/>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B598" s="77" t="s">
+      <c r="B598" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D598" s="65" t="s">
@@ -33551,10 +33547,10 @@
       <c r="E598" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="F598" s="78"/>
+      <c r="F598" s="77"/>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B599" s="77" t="s">
+      <c r="B599" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D599" s="65" t="s">
@@ -33563,10 +33559,10 @@
       <c r="E599" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="F599" s="78"/>
+      <c r="F599" s="77"/>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B600" s="77" t="s">
+      <c r="B600" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D600" s="65" t="s">
@@ -33575,10 +33571,10 @@
       <c r="E600" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F600" s="78"/>
+      <c r="F600" s="77"/>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B601" s="77" t="s">
+      <c r="B601" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D601" s="65" t="s">
@@ -33587,10 +33583,10 @@
       <c r="E601" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="F601" s="78"/>
+      <c r="F601" s="77"/>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B602" s="77" t="s">
+      <c r="B602" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D602" s="65" t="s">
@@ -33599,10 +33595,10 @@
       <c r="E602" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="F602" s="78"/>
+      <c r="F602" s="77"/>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B603" s="77" t="s">
+      <c r="B603" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D603" s="65" t="s">
@@ -33611,10 +33607,10 @@
       <c r="E603" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="F603" s="78"/>
+      <c r="F603" s="77"/>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B604" s="77" t="s">
+      <c r="B604" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D604" s="65" t="s">
@@ -33623,10 +33619,10 @@
       <c r="E604" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="F604" s="78"/>
+      <c r="F604" s="77"/>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B605" s="77" t="s">
+      <c r="B605" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D605" s="65" t="s">
@@ -33635,10 +33631,10 @@
       <c r="E605" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="F605" s="78"/>
+      <c r="F605" s="77"/>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B606" s="77" t="s">
+      <c r="B606" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D606" s="65" t="s">
@@ -33647,10 +33643,10 @@
       <c r="E606" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="F606" s="78"/>
+      <c r="F606" s="77"/>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B607" s="77" t="s">
+      <c r="B607" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D607" s="65" t="s">
@@ -33659,10 +33655,10 @@
       <c r="E607" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="F607" s="78"/>
+      <c r="F607" s="77"/>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B608" s="77" t="s">
+      <c r="B608" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D608" s="65" t="s">
@@ -33671,10 +33667,10 @@
       <c r="E608" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="F608" s="78"/>
+      <c r="F608" s="77"/>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B609" s="77" t="s">
+      <c r="B609" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D609" s="65" t="s">
@@ -33683,10 +33679,10 @@
       <c r="E609" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="F609" s="78"/>
+      <c r="F609" s="77"/>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B610" s="77" t="s">
+      <c r="B610" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D610" s="65" t="s">
@@ -33695,10 +33691,10 @@
       <c r="E610" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="F610" s="78"/>
+      <c r="F610" s="77"/>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B611" s="77" t="s">
+      <c r="B611" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D611" s="65" t="s">
@@ -33707,10 +33703,10 @@
       <c r="E611" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="F611" s="78"/>
+      <c r="F611" s="77"/>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B612" s="77" t="s">
+      <c r="B612" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D612" s="65" t="s">
@@ -33719,10 +33715,10 @@
       <c r="E612" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="F612" s="78"/>
+      <c r="F612" s="77"/>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B613" s="77" t="s">
+      <c r="B613" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D613" s="65" t="s">
@@ -33731,10 +33727,10 @@
       <c r="E613" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="F613" s="78"/>
+      <c r="F613" s="77"/>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B614" s="77" t="s">
+      <c r="B614" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D614" s="65" t="s">
@@ -33743,10 +33739,10 @@
       <c r="E614" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="F614" s="78"/>
+      <c r="F614" s="77"/>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B615" s="77" t="s">
+      <c r="B615" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D615" s="65" t="s">
@@ -33755,10 +33751,10 @@
       <c r="E615" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="F615" s="78"/>
+      <c r="F615" s="77"/>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B616" s="77" t="s">
+      <c r="B616" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D616" s="65" t="s">
@@ -33767,10 +33763,10 @@
       <c r="E616" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="F616" s="78"/>
+      <c r="F616" s="77"/>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B617" s="77" t="s">
+      <c r="B617" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D617" s="65" t="s">
@@ -33779,10 +33775,10 @@
       <c r="E617" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="F617" s="78"/>
+      <c r="F617" s="77"/>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B618" s="77" t="s">
+      <c r="B618" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D618" s="65" t="s">
@@ -33791,10 +33787,10 @@
       <c r="E618" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="F618" s="78"/>
+      <c r="F618" s="77"/>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B619" s="77" t="s">
+      <c r="B619" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D619" s="65" t="s">
@@ -33803,10 +33799,10 @@
       <c r="E619" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="F619" s="78"/>
+      <c r="F619" s="77"/>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B620" s="77" t="s">
+      <c r="B620" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D620" s="65" t="s">
@@ -33815,10 +33811,10 @@
       <c r="E620" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="F620" s="78"/>
+      <c r="F620" s="77"/>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B621" s="77" t="s">
+      <c r="B621" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D621" s="65" t="s">
@@ -33827,10 +33823,10 @@
       <c r="E621" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="F621" s="78"/>
+      <c r="F621" s="77"/>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B622" s="77" t="s">
+      <c r="B622" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D622" s="65" t="s">
@@ -33839,10 +33835,10 @@
       <c r="E622" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="F622" s="78"/>
+      <c r="F622" s="77"/>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B623" s="77" t="s">
+      <c r="B623" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D623" s="65" t="s">
@@ -33851,10 +33847,10 @@
       <c r="E623" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="F623" s="78"/>
+      <c r="F623" s="77"/>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B624" s="77" t="s">
+      <c r="B624" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D624" s="65" t="s">
@@ -33863,10 +33859,10 @@
       <c r="E624" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="F624" s="78"/>
+      <c r="F624" s="77"/>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B625" s="77" t="s">
+      <c r="B625" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D625" s="65" t="s">
@@ -33875,10 +33871,10 @@
       <c r="E625" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="F625" s="78"/>
+      <c r="F625" s="77"/>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B626" s="77" t="s">
+      <c r="B626" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D626" s="65" t="s">
@@ -33887,10 +33883,10 @@
       <c r="E626" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="F626" s="78"/>
+      <c r="F626" s="77"/>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B627" s="77" t="s">
+      <c r="B627" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D627" s="65" t="s">
@@ -33899,10 +33895,10 @@
       <c r="E627" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="F627" s="78"/>
+      <c r="F627" s="77"/>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B628" s="77" t="s">
+      <c r="B628" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D628" s="65" t="s">
@@ -33911,10 +33907,10 @@
       <c r="E628" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="F628" s="78"/>
+      <c r="F628" s="77"/>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B629" s="77" t="s">
+      <c r="B629" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D629" s="65" t="s">
@@ -33923,10 +33919,10 @@
       <c r="E629" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="F629" s="78"/>
+      <c r="F629" s="77"/>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B630" s="77" t="s">
+      <c r="B630" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D630" s="65" t="s">
@@ -33935,10 +33931,10 @@
       <c r="E630" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="F630" s="78"/>
+      <c r="F630" s="77"/>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B631" s="77" t="s">
+      <c r="B631" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D631" s="65" t="s">
@@ -33947,10 +33943,10 @@
       <c r="E631" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="F631" s="78"/>
+      <c r="F631" s="77"/>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B632" s="77" t="s">
+      <c r="B632" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D632" s="65" t="s">
@@ -33959,10 +33955,10 @@
       <c r="E632" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="F632" s="78"/>
+      <c r="F632" s="77"/>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B633" s="77" t="s">
+      <c r="B633" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D633" s="65" t="s">
@@ -33971,10 +33967,10 @@
       <c r="E633" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="F633" s="78"/>
+      <c r="F633" s="77"/>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B634" s="77" t="s">
+      <c r="B634" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D634" s="65" t="s">
@@ -33983,10 +33979,10 @@
       <c r="E634" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="F634" s="78"/>
+      <c r="F634" s="77"/>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B635" s="77" t="s">
+      <c r="B635" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D635" s="65" t="s">
@@ -33995,10 +33991,10 @@
       <c r="E635" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="F635" s="78"/>
+      <c r="F635" s="77"/>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B636" s="77" t="s">
+      <c r="B636" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D636" s="65" t="s">
@@ -34007,10 +34003,10 @@
       <c r="E636" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="F636" s="78"/>
+      <c r="F636" s="77"/>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B637" s="77" t="s">
+      <c r="B637" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D637" s="65" t="s">
@@ -34019,10 +34015,10 @@
       <c r="E637" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="F637" s="78"/>
+      <c r="F637" s="77"/>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B638" s="77" t="s">
+      <c r="B638" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D638" s="65" t="s">
@@ -34031,10 +34027,10 @@
       <c r="E638" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="F638" s="78"/>
+      <c r="F638" s="77"/>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B639" s="77" t="s">
+      <c r="B639" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D639" s="65" t="s">
@@ -34043,10 +34039,10 @@
       <c r="E639" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="F639" s="78"/>
+      <c r="F639" s="77"/>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B640" s="77" t="s">
+      <c r="B640" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D640" s="65" t="s">
@@ -34055,10 +34051,10 @@
       <c r="E640" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="F640" s="78"/>
+      <c r="F640" s="77"/>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B641" s="77" t="s">
+      <c r="B641" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D641" s="65" t="s">
@@ -34067,10 +34063,10 @@
       <c r="E641" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="F641" s="78"/>
+      <c r="F641" s="77"/>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B642" s="77" t="s">
+      <c r="B642" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D642" s="65" t="s">
@@ -34079,10 +34075,10 @@
       <c r="E642" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="F642" s="78"/>
+      <c r="F642" s="77"/>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B643" s="77" t="s">
+      <c r="B643" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D643" s="65" t="s">
@@ -34091,10 +34087,10 @@
       <c r="E643" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="F643" s="78"/>
+      <c r="F643" s="77"/>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B644" s="77" t="s">
+      <c r="B644" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D644" s="65" t="s">
@@ -34103,10 +34099,10 @@
       <c r="E644" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="F644" s="78"/>
+      <c r="F644" s="77"/>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B645" s="77" t="s">
+      <c r="B645" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D645" s="65" t="s">
@@ -34115,10 +34111,10 @@
       <c r="E645" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="F645" s="78"/>
+      <c r="F645" s="77"/>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B646" s="77" t="s">
+      <c r="B646" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D646" s="65" t="s">
@@ -34127,10 +34123,10 @@
       <c r="E646" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="F646" s="78"/>
+      <c r="F646" s="77"/>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B647" s="77" t="s">
+      <c r="B647" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D647" s="65" t="s">
@@ -34139,10 +34135,10 @@
       <c r="E647" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="F647" s="78"/>
+      <c r="F647" s="77"/>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B648" s="77" t="s">
+      <c r="B648" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D648" s="65" t="s">
@@ -34151,10 +34147,10 @@
       <c r="E648" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="F648" s="78"/>
+      <c r="F648" s="77"/>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B649" s="77" t="s">
+      <c r="B649" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D649" s="65" t="s">
@@ -34163,10 +34159,10 @@
       <c r="E649" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="F649" s="78"/>
+      <c r="F649" s="77"/>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B650" s="77" t="s">
+      <c r="B650" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D650" s="65" t="s">
@@ -34175,10 +34171,10 @@
       <c r="E650" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="F650" s="78"/>
+      <c r="F650" s="77"/>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B651" s="77" t="s">
+      <c r="B651" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D651" s="65" t="s">
@@ -34187,10 +34183,10 @@
       <c r="E651" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="F651" s="78"/>
+      <c r="F651" s="77"/>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B652" s="77" t="s">
+      <c r="B652" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D652" s="65" t="s">
@@ -34199,10 +34195,10 @@
       <c r="E652" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="F652" s="78"/>
+      <c r="F652" s="77"/>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B653" s="77" t="s">
+      <c r="B653" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D653" s="65" t="s">
@@ -34211,10 +34207,10 @@
       <c r="E653" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="F653" s="78"/>
+      <c r="F653" s="77"/>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B654" s="77" t="s">
+      <c r="B654" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D654" s="65" t="s">
@@ -34226,7 +34222,7 @@
       <c r="F654" s="0"/>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B655" s="77" t="s">
+      <c r="B655" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D655" s="65" t="s">
@@ -34238,7 +34234,7 @@
       <c r="F655" s="0"/>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B656" s="77" t="s">
+      <c r="B656" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D656" s="65" t="s">
@@ -34250,7 +34246,7 @@
       <c r="F656" s="0"/>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B657" s="77" t="s">
+      <c r="B657" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D657" s="65" t="s">
@@ -34262,7 +34258,7 @@
       <c r="F657" s="0"/>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B658" s="77" t="s">
+      <c r="B658" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D658" s="65" t="s">
@@ -34274,7 +34270,7 @@
       <c r="F658" s="0"/>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B659" s="77" t="s">
+      <c r="B659" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D659" s="65" t="s">
@@ -34286,7 +34282,7 @@
       <c r="F659" s="0"/>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B660" s="77" t="s">
+      <c r="B660" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D660" s="65" t="s">
@@ -34298,7 +34294,7 @@
       <c r="F660" s="0"/>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B661" s="77" t="s">
+      <c r="B661" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D661" s="65" t="s">
@@ -34310,7 +34306,7 @@
       <c r="F661" s="0"/>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B662" s="77" t="s">
+      <c r="B662" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D662" s="65" t="s">
@@ -34322,7 +34318,7 @@
       <c r="F662" s="0"/>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B663" s="77" t="s">
+      <c r="B663" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D663" s="65" t="s">
@@ -34334,7 +34330,7 @@
       <c r="F663" s="0"/>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B664" s="77" t="s">
+      <c r="B664" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D664" s="65" t="s">
@@ -34346,7 +34342,7 @@
       <c r="F664" s="0"/>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B665" s="77" t="s">
+      <c r="B665" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D665" s="65" t="s">
@@ -34358,7 +34354,7 @@
       <c r="F665" s="0"/>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B666" s="77" t="s">
+      <c r="B666" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D666" s="65" t="s">
@@ -34370,7 +34366,7 @@
       <c r="F666" s="0"/>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B667" s="77" t="s">
+      <c r="B667" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D667" s="65" t="s">
@@ -34382,7 +34378,7 @@
       <c r="F667" s="0"/>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B668" s="77" t="s">
+      <c r="B668" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D668" s="65" t="s">
@@ -34391,10 +34387,10 @@
       <c r="E668" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="F668" s="78"/>
+      <c r="F668" s="77"/>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B669" s="77" t="s">
+      <c r="B669" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D669" s="65" t="s">
@@ -34403,10 +34399,10 @@
       <c r="E669" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="F669" s="78"/>
+      <c r="F669" s="77"/>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B670" s="77" t="s">
+      <c r="B670" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D670" s="65" t="s">
@@ -34415,10 +34411,10 @@
       <c r="E670" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="F670" s="78"/>
+      <c r="F670" s="77"/>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B671" s="77" t="s">
+      <c r="B671" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D671" s="65" t="s">
@@ -34427,10 +34423,10 @@
       <c r="E671" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="F671" s="78"/>
+      <c r="F671" s="77"/>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B672" s="77" t="s">
+      <c r="B672" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D672" s="65" t="s">
@@ -34439,10 +34435,10 @@
       <c r="E672" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="F672" s="78"/>
+      <c r="F672" s="77"/>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B673" s="77" t="s">
+      <c r="B673" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D673" s="65" t="s">
@@ -34451,10 +34447,10 @@
       <c r="E673" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="F673" s="78"/>
+      <c r="F673" s="77"/>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B674" s="77" t="s">
+      <c r="B674" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D674" s="65" t="s">
@@ -34463,10 +34459,10 @@
       <c r="E674" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="F674" s="78"/>
+      <c r="F674" s="77"/>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B675" s="77" t="s">
+      <c r="B675" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D675" s="65" t="s">
@@ -34475,10 +34471,10 @@
       <c r="E675" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="F675" s="78"/>
+      <c r="F675" s="77"/>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B676" s="77" t="s">
+      <c r="B676" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D676" s="65" t="s">
@@ -34487,10 +34483,10 @@
       <c r="E676" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="F676" s="78"/>
+      <c r="F676" s="77"/>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B677" s="77" t="s">
+      <c r="B677" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D677" s="65" t="s">
@@ -34499,10 +34495,10 @@
       <c r="E677" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="F677" s="78"/>
+      <c r="F677" s="77"/>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B678" s="77" t="s">
+      <c r="B678" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D678" s="65" t="s">
@@ -34511,10 +34507,10 @@
       <c r="E678" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="F678" s="78"/>
+      <c r="F678" s="77"/>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B679" s="77" t="s">
+      <c r="B679" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D679" s="65" t="s">
@@ -34523,10 +34519,10 @@
       <c r="E679" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="F679" s="78"/>
+      <c r="F679" s="77"/>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B680" s="77" t="s">
+      <c r="B680" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D680" s="65" t="s">
@@ -34535,10 +34531,10 @@
       <c r="E680" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="F680" s="78"/>
+      <c r="F680" s="77"/>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B681" s="77" t="s">
+      <c r="B681" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D681" s="65" t="s">
@@ -34547,10 +34543,10 @@
       <c r="E681" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="F681" s="78"/>
+      <c r="F681" s="77"/>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B682" s="77" t="s">
+      <c r="B682" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D682" s="65" t="s">
@@ -34559,10 +34555,10 @@
       <c r="E682" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="F682" s="78"/>
+      <c r="F682" s="77"/>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B683" s="77" t="s">
+      <c r="B683" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D683" s="65" t="s">
@@ -34571,10 +34567,10 @@
       <c r="E683" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="F683" s="78"/>
+      <c r="F683" s="77"/>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B684" s="77" t="s">
+      <c r="B684" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D684" s="65" t="s">
@@ -34583,10 +34579,10 @@
       <c r="E684" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="F684" s="78"/>
+      <c r="F684" s="77"/>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B685" s="77" t="s">
+      <c r="B685" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D685" s="65" t="s">
@@ -34595,10 +34591,10 @@
       <c r="E685" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="F685" s="78"/>
+      <c r="F685" s="77"/>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B686" s="77" t="s">
+      <c r="B686" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D686" s="65" t="s">
@@ -34607,10 +34603,10 @@
       <c r="E686" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="F686" s="78"/>
+      <c r="F686" s="77"/>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B687" s="77" t="s">
+      <c r="B687" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D687" s="65" t="s">
@@ -34619,10 +34615,10 @@
       <c r="E687" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="F687" s="78"/>
+      <c r="F687" s="77"/>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B688" s="77" t="s">
+      <c r="B688" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D688" s="65" t="s">
@@ -34631,12 +34627,12 @@
       <c r="E688" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="F688" s="78" t="n">
+      <c r="F688" s="77" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B689" s="77" t="s">
+      <c r="B689" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D689" s="65" t="s">
@@ -34645,12 +34641,12 @@
       <c r="E689" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="F689" s="78" t="n">
+      <c r="F689" s="77" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B690" s="77" t="s">
+      <c r="B690" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D690" s="65" t="s">
@@ -34659,10 +34655,10 @@
       <c r="E690" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="F690" s="78"/>
+      <c r="F690" s="77"/>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B691" s="77" t="s">
+      <c r="B691" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D691" s="65" t="s">
@@ -34671,10 +34667,10 @@
       <c r="E691" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="F691" s="78"/>
+      <c r="F691" s="77"/>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B692" s="77" t="s">
+      <c r="B692" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D692" s="65" t="s">
@@ -34683,10 +34679,10 @@
       <c r="E692" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="F692" s="78"/>
+      <c r="F692" s="77"/>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B693" s="77" t="s">
+      <c r="B693" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D693" s="65" t="s">
@@ -34695,10 +34691,10 @@
       <c r="E693" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="F693" s="78"/>
+      <c r="F693" s="77"/>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B694" s="77" t="s">
+      <c r="B694" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D694" s="65" t="s">
@@ -34707,10 +34703,10 @@
       <c r="E694" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="F694" s="78"/>
+      <c r="F694" s="77"/>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B695" s="77" t="s">
+      <c r="B695" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D695" s="65" t="s">
@@ -34719,10 +34715,10 @@
       <c r="E695" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="F695" s="78"/>
+      <c r="F695" s="77"/>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B696" s="77" t="s">
+      <c r="B696" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D696" s="65" t="s">
@@ -34731,10 +34727,10 @@
       <c r="E696" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="F696" s="78"/>
+      <c r="F696" s="77"/>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B697" s="77" t="s">
+      <c r="B697" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D697" s="65" t="s">
@@ -34743,10 +34739,10 @@
       <c r="E697" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="F697" s="78"/>
+      <c r="F697" s="77"/>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B698" s="77" t="s">
+      <c r="B698" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D698" s="65" t="s">
@@ -34755,10 +34751,10 @@
       <c r="E698" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="F698" s="78"/>
+      <c r="F698" s="77"/>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B699" s="77" t="s">
+      <c r="B699" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D699" s="65" t="s">
@@ -34767,10 +34763,10 @@
       <c r="E699" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="F699" s="78"/>
+      <c r="F699" s="77"/>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B700" s="77" t="s">
+      <c r="B700" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D700" s="65" t="s">
@@ -34779,10 +34775,10 @@
       <c r="E700" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="F700" s="78"/>
+      <c r="F700" s="77"/>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B701" s="77" t="s">
+      <c r="B701" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D701" s="65" t="s">
@@ -34791,10 +34787,10 @@
       <c r="E701" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="F701" s="78"/>
+      <c r="F701" s="77"/>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B702" s="77" t="s">
+      <c r="B702" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D702" s="65" t="s">
@@ -34803,10 +34799,10 @@
       <c r="E702" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="F702" s="78"/>
+      <c r="F702" s="77"/>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B703" s="77" t="s">
+      <c r="B703" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D703" s="65" t="s">
@@ -34815,10 +34811,10 @@
       <c r="E703" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="F703" s="78"/>
+      <c r="F703" s="77"/>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B704" s="77" t="s">
+      <c r="B704" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D704" s="65" t="s">
@@ -34827,10 +34823,10 @@
       <c r="E704" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="F704" s="78"/>
+      <c r="F704" s="77"/>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B705" s="77" t="s">
+      <c r="B705" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D705" s="65" t="s">
@@ -34839,10 +34835,10 @@
       <c r="E705" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="F705" s="78"/>
+      <c r="F705" s="77"/>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B706" s="77" t="s">
+      <c r="B706" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D706" s="65" t="s">
@@ -34851,12 +34847,12 @@
       <c r="E706" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="F706" s="78" t="n">
+      <c r="F706" s="77" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B707" s="77" t="s">
+      <c r="B707" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D707" s="65" t="s">
@@ -34865,12 +34861,12 @@
       <c r="E707" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="F707" s="78" t="n">
+      <c r="F707" s="77" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B708" s="77" t="s">
+      <c r="B708" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D708" s="65" t="s">
@@ -34879,12 +34875,12 @@
       <c r="E708" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="F708" s="78" t="n">
+      <c r="F708" s="77" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B709" s="77" t="s">
+      <c r="B709" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D709" s="65" t="s">
@@ -34893,10 +34889,10 @@
       <c r="E709" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="F709" s="78"/>
+      <c r="F709" s="77"/>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B710" s="77" t="s">
+      <c r="B710" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D710" s="65" t="s">
@@ -34905,12 +34901,12 @@
       <c r="E710" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F710" s="78" t="n">
+      <c r="F710" s="77" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B711" s="77" t="s">
+      <c r="B711" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D711" s="65" t="s">
@@ -34919,12 +34915,12 @@
       <c r="E711" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F711" s="78" t="n">
+      <c r="F711" s="77" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B712" s="77" t="s">
+      <c r="B712" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D712" s="65" t="s">
@@ -34933,10 +34929,10 @@
       <c r="E712" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="F712" s="78"/>
+      <c r="F712" s="77"/>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B713" s="77" t="s">
+      <c r="B713" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D713" s="65" t="s">
@@ -34945,10 +34941,10 @@
       <c r="E713" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="F713" s="78"/>
+      <c r="F713" s="77"/>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B714" s="77" t="s">
+      <c r="B714" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D714" s="65" t="s">
@@ -34957,10 +34953,10 @@
       <c r="E714" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="F714" s="78"/>
+      <c r="F714" s="77"/>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B715" s="77" t="s">
+      <c r="B715" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D715" s="65" t="s">
@@ -34969,10 +34965,10 @@
       <c r="E715" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="F715" s="78"/>
+      <c r="F715" s="77"/>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B716" s="77" t="s">
+      <c r="B716" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D716" s="65" t="s">
@@ -34981,10 +34977,10 @@
       <c r="E716" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="F716" s="78"/>
+      <c r="F716" s="77"/>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B717" s="77" t="s">
+      <c r="B717" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D717" s="65" t="s">
@@ -34993,10 +34989,10 @@
       <c r="E717" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="F717" s="78"/>
+      <c r="F717" s="77"/>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B718" s="77" t="s">
+      <c r="B718" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D718" s="65" t="s">
@@ -35005,12 +35001,12 @@
       <c r="E718" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="F718" s="78" t="n">
+      <c r="F718" s="77" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B719" s="77" t="s">
+      <c r="B719" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D719" s="65" t="s">
@@ -35019,10 +35015,10 @@
       <c r="E719" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="F719" s="78"/>
+      <c r="F719" s="77"/>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B720" s="77" t="s">
+      <c r="B720" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D720" s="65" t="s">
@@ -35031,10 +35027,10 @@
       <c r="E720" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="F720" s="78"/>
+      <c r="F720" s="77"/>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B721" s="77" t="s">
+      <c r="B721" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D721" s="65" t="s">
@@ -35043,10 +35039,10 @@
       <c r="E721" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="F721" s="78"/>
+      <c r="F721" s="77"/>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B722" s="77" t="s">
+      <c r="B722" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D722" s="65" t="s">
@@ -35055,10 +35051,10 @@
       <c r="E722" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="F722" s="78"/>
+      <c r="F722" s="77"/>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B723" s="77" t="s">
+      <c r="B723" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D723" s="65" t="s">
@@ -35067,10 +35063,10 @@
       <c r="E723" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="F723" s="78"/>
+      <c r="F723" s="77"/>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B724" s="77" t="s">
+      <c r="B724" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D724" s="65" t="s">
@@ -35079,10 +35075,10 @@
       <c r="E724" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="F724" s="78"/>
+      <c r="F724" s="77"/>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B725" s="77" t="s">
+      <c r="B725" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D725" s="65" t="s">
@@ -35091,10 +35087,10 @@
       <c r="E725" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="F725" s="78"/>
+      <c r="F725" s="77"/>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B726" s="77" t="s">
+      <c r="B726" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D726" s="65" t="s">
@@ -35103,10 +35099,10 @@
       <c r="E726" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="F726" s="78"/>
+      <c r="F726" s="77"/>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B727" s="77" t="s">
+      <c r="B727" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D727" s="65" t="s">
@@ -35118,7 +35114,7 @@
       <c r="F727" s="0"/>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B728" s="77" t="s">
+      <c r="B728" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D728" s="65" t="s">
@@ -35130,7 +35126,7 @@
       <c r="F728" s="0"/>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B729" s="77" t="s">
+      <c r="B729" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D729" s="65" t="s">
@@ -35142,7 +35138,7 @@
       <c r="F729" s="0"/>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B730" s="77" t="s">
+      <c r="B730" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D730" s="65" t="s">
@@ -35154,7 +35150,7 @@
       <c r="F730" s="0"/>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B731" s="77" t="s">
+      <c r="B731" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D731" s="65" t="s">
@@ -35166,7 +35162,7 @@
       <c r="F731" s="0"/>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B732" s="77" t="s">
+      <c r="B732" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D732" s="65" t="s">
@@ -35178,7 +35174,7 @@
       <c r="F732" s="0"/>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B733" s="77" t="s">
+      <c r="B733" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D733" s="65" t="s">
@@ -35190,7 +35186,7 @@
       <c r="F733" s="0"/>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B734" s="77" t="s">
+      <c r="B734" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D734" s="65" t="s">
@@ -35202,7 +35198,7 @@
       <c r="F734" s="0"/>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B735" s="77" t="s">
+      <c r="B735" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D735" s="65" t="s">
@@ -35214,7 +35210,7 @@
       <c r="F735" s="0"/>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B736" s="77" t="s">
+      <c r="B736" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D736" s="65" t="s">
@@ -35226,7 +35222,7 @@
       <c r="F736" s="0"/>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B737" s="77" t="s">
+      <c r="B737" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D737" s="65" t="s">
@@ -35238,7 +35234,7 @@
       <c r="F737" s="0"/>
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B738" s="77" t="s">
+      <c r="B738" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D738" s="65" t="s">
@@ -35250,7 +35246,7 @@
       <c r="F738" s="0"/>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B739" s="77" t="s">
+      <c r="B739" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D739" s="65" t="s">
@@ -35262,7 +35258,7 @@
       <c r="F739" s="0"/>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B740" s="77" t="s">
+      <c r="B740" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D740" s="65" t="s">
@@ -35274,7 +35270,7 @@
       <c r="F740" s="0"/>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B741" s="77" t="s">
+      <c r="B741" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D741" s="65" t="s">
@@ -35286,7 +35282,7 @@
       <c r="F741" s="0"/>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B742" s="77" t="s">
+      <c r="B742" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D742" s="65" t="s">
@@ -35298,7 +35294,7 @@
       <c r="F742" s="0"/>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B743" s="77" t="s">
+      <c r="B743" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D743" s="65" t="s">
@@ -35310,7 +35306,7 @@
       <c r="F743" s="0"/>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B744" s="77" t="s">
+      <c r="B744" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D744" s="65" t="s">
@@ -35322,7 +35318,7 @@
       <c r="F744" s="0"/>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B745" s="77" t="s">
+      <c r="B745" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D745" s="65" t="s">
@@ -35334,7 +35330,7 @@
       <c r="F745" s="0"/>
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B746" s="77" t="s">
+      <c r="B746" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D746" s="65" t="s">
@@ -35346,7 +35342,7 @@
       <c r="F746" s="0"/>
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B747" s="77" t="s">
+      <c r="B747" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D747" s="65" t="s">
@@ -35358,7 +35354,7 @@
       <c r="F747" s="0"/>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B748" s="77" t="s">
+      <c r="B748" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D748" s="65" t="s">
@@ -35370,7 +35366,7 @@
       <c r="F748" s="0"/>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B749" s="77" t="s">
+      <c r="B749" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D749" s="65" t="s">
@@ -35382,7 +35378,7 @@
       <c r="F749" s="0"/>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B750" s="77" t="s">
+      <c r="B750" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D750" s="65" t="s">
@@ -35394,7 +35390,7 @@
       <c r="F750" s="0"/>
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B751" s="77" t="s">
+      <c r="B751" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D751" s="65" t="s">
@@ -35406,7 +35402,7 @@
       <c r="F751" s="0"/>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B752" s="77" t="s">
+      <c r="B752" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D752" s="65" t="s">
@@ -35418,7 +35414,7 @@
       <c r="F752" s="0"/>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B753" s="77" t="s">
+      <c r="B753" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D753" s="65" t="s">
@@ -35430,7 +35426,7 @@
       <c r="F753" s="0"/>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B754" s="77" t="s">
+      <c r="B754" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D754" s="65" t="s">
@@ -35442,7 +35438,7 @@
       <c r="F754" s="0"/>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B755" s="77" t="s">
+      <c r="B755" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D755" s="65" t="s">
@@ -35454,7 +35450,7 @@
       <c r="F755" s="0"/>
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B756" s="77" t="s">
+      <c r="B756" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D756" s="65" t="s">
@@ -35466,7 +35462,7 @@
       <c r="F756" s="0"/>
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B757" s="77" t="s">
+      <c r="B757" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D757" s="65" t="s">
@@ -35478,7 +35474,7 @@
       <c r="F757" s="0"/>
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B758" s="77" t="s">
+      <c r="B758" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D758" s="65" t="s">
@@ -35490,7 +35486,7 @@
       <c r="F758" s="0"/>
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B759" s="77" t="s">
+      <c r="B759" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D759" s="65" t="s">
@@ -35502,7 +35498,7 @@
       <c r="F759" s="0"/>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B760" s="77" t="s">
+      <c r="B760" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D760" s="65" t="s">
@@ -35514,7 +35510,7 @@
       <c r="F760" s="0"/>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B761" s="77" t="s">
+      <c r="B761" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D761" s="65" t="s">
@@ -35526,7 +35522,7 @@
       <c r="F761" s="0"/>
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B762" s="77" t="s">
+      <c r="B762" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D762" s="65" t="s">
@@ -35538,7 +35534,7 @@
       <c r="F762" s="0"/>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B763" s="77" t="s">
+      <c r="B763" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D763" s="65" t="s">
@@ -35550,7 +35546,7 @@
       <c r="F763" s="0"/>
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B764" s="77" t="s">
+      <c r="B764" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D764" s="65" t="s">
@@ -35562,7 +35558,7 @@
       <c r="F764" s="0"/>
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B765" s="77" t="s">
+      <c r="B765" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D765" s="65" t="s">
@@ -35574,7 +35570,7 @@
       <c r="F765" s="0"/>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B766" s="77" t="s">
+      <c r="B766" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D766" s="65" t="s">
@@ -35586,7 +35582,7 @@
       <c r="F766" s="0"/>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B767" s="77" t="s">
+      <c r="B767" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D767" s="65" t="s">
@@ -35598,7 +35594,7 @@
       <c r="F767" s="0"/>
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B768" s="77" t="s">
+      <c r="B768" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D768" s="65" t="s">
@@ -35610,7 +35606,7 @@
       <c r="F768" s="0"/>
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B769" s="77" t="s">
+      <c r="B769" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D769" s="65" t="s">
@@ -35622,7 +35618,7 @@
       <c r="F769" s="0"/>
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B770" s="77" t="s">
+      <c r="B770" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D770" s="65" t="s">
@@ -35634,7 +35630,7 @@
       <c r="F770" s="0"/>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B771" s="77" t="s">
+      <c r="B771" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D771" s="65" t="s">
@@ -35646,7 +35642,7 @@
       <c r="F771" s="0"/>
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B772" s="77" t="s">
+      <c r="B772" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D772" s="65" t="s">
@@ -35658,7 +35654,7 @@
       <c r="F772" s="0"/>
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B773" s="77" t="s">
+      <c r="B773" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D773" s="65" t="s">
@@ -35670,7 +35666,7 @@
       <c r="F773" s="0"/>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B774" s="77" t="s">
+      <c r="B774" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D774" s="65" t="s">
@@ -35682,7 +35678,7 @@
       <c r="F774" s="0"/>
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B775" s="77" t="s">
+      <c r="B775" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D775" s="65" t="s">
@@ -35694,7 +35690,7 @@
       <c r="F775" s="0"/>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B776" s="77" t="s">
+      <c r="B776" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D776" s="65" t="s">
@@ -35706,7 +35702,7 @@
       <c r="F776" s="0"/>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B777" s="77" t="s">
+      <c r="B777" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D777" s="65" t="s">
@@ -35718,7 +35714,7 @@
       <c r="F777" s="0"/>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B778" s="77" t="s">
+      <c r="B778" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D778" s="65" t="s">
@@ -35730,7 +35726,7 @@
       <c r="F778" s="0"/>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B779" s="77" t="s">
+      <c r="B779" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D779" s="65" t="s">
@@ -35742,7 +35738,7 @@
       <c r="F779" s="0"/>
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B780" s="77" t="s">
+      <c r="B780" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D780" s="65" t="s">
@@ -35754,7 +35750,7 @@
       <c r="F780" s="0"/>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B781" s="77" t="s">
+      <c r="B781" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D781" s="65" t="s">
@@ -35766,7 +35762,7 @@
       <c r="F781" s="0"/>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B782" s="77" t="s">
+      <c r="B782" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D782" s="65" t="s">
@@ -35778,7 +35774,7 @@
       <c r="F782" s="0"/>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B783" s="77" t="s">
+      <c r="B783" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D783" s="65" t="s">
@@ -35790,7 +35786,7 @@
       <c r="F783" s="0"/>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B784" s="77" t="s">
+      <c r="B784" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D784" s="65" t="s">
@@ -35802,7 +35798,7 @@
       <c r="F784" s="0"/>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B785" s="77" t="s">
+      <c r="B785" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D785" s="65" t="s">
@@ -35814,7 +35810,7 @@
       <c r="F785" s="0"/>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B786" s="77" t="s">
+      <c r="B786" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D786" s="65" t="s">
@@ -35826,7 +35822,7 @@
       <c r="F786" s="0"/>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B787" s="77" t="s">
+      <c r="B787" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D787" s="65" t="s">
@@ -35838,7 +35834,7 @@
       <c r="F787" s="0"/>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B788" s="77" t="s">
+      <c r="B788" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D788" s="65" t="s">
@@ -35850,7 +35846,7 @@
       <c r="F788" s="0"/>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B789" s="77" t="s">
+      <c r="B789" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D789" s="65" t="s">
@@ -35862,7 +35858,7 @@
       <c r="F789" s="0"/>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B790" s="77" t="s">
+      <c r="B790" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D790" s="65" t="s">
@@ -35874,7 +35870,7 @@
       <c r="F790" s="0"/>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B791" s="77" t="s">
+      <c r="B791" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D791" s="65" t="s">
@@ -35886,7 +35882,7 @@
       <c r="F791" s="0"/>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B792" s="77" t="s">
+      <c r="B792" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D792" s="65" t="s">
@@ -35898,7 +35894,7 @@
       <c r="F792" s="0"/>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B793" s="77" t="s">
+      <c r="B793" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D793" s="65" t="s">
@@ -35910,7 +35906,7 @@
       <c r="F793" s="0"/>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B794" s="77" t="s">
+      <c r="B794" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D794" s="65" t="s">
@@ -35922,7 +35918,7 @@
       <c r="F794" s="0"/>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B795" s="77" t="s">
+      <c r="B795" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D795" s="65" t="s">
@@ -35934,7 +35930,7 @@
       <c r="F795" s="0"/>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B796" s="77" t="s">
+      <c r="B796" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D796" s="65" t="s">
@@ -35946,7 +35942,7 @@
       <c r="F796" s="0"/>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B797" s="77" t="s">
+      <c r="B797" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D797" s="65" t="s">
@@ -35958,7 +35954,7 @@
       <c r="F797" s="0"/>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B798" s="77" t="s">
+      <c r="B798" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D798" s="65" t="s">
@@ -35970,7 +35966,7 @@
       <c r="F798" s="0"/>
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B799" s="77" t="s">
+      <c r="B799" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D799" s="65" t="s">
@@ -35982,7 +35978,7 @@
       <c r="F799" s="0"/>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B800" s="77" t="s">
+      <c r="B800" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D800" s="65" t="s">
@@ -35994,7 +35990,7 @@
       <c r="F800" s="0"/>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B801" s="77" t="s">
+      <c r="B801" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D801" s="65" t="s">
@@ -36006,7 +36002,7 @@
       <c r="F801" s="0"/>
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B802" s="77" t="s">
+      <c r="B802" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D802" s="65" t="s">
@@ -36018,7 +36014,7 @@
       <c r="F802" s="0"/>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B803" s="77" t="s">
+      <c r="B803" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D803" s="65" t="s">
@@ -36030,7 +36026,7 @@
       <c r="F803" s="0"/>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B804" s="77" t="s">
+      <c r="B804" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D804" s="65" t="s">
@@ -36042,7 +36038,7 @@
       <c r="F804" s="0"/>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B805" s="77" t="s">
+      <c r="B805" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D805" s="65" t="s">
@@ -36054,7 +36050,7 @@
       <c r="F805" s="0"/>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B806" s="77" t="s">
+      <c r="B806" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D806" s="65" t="s">
@@ -36066,7 +36062,7 @@
       <c r="F806" s="0"/>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B807" s="77" t="s">
+      <c r="B807" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D807" s="65" t="s">
@@ -36078,7 +36074,7 @@
       <c r="F807" s="0"/>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B808" s="77" t="s">
+      <c r="B808" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D808" s="65" t="s">
@@ -36090,7 +36086,7 @@
       <c r="F808" s="0"/>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B809" s="77" t="s">
+      <c r="B809" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D809" s="65" t="s">
@@ -36102,7 +36098,7 @@
       <c r="F809" s="0"/>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B810" s="77" t="s">
+      <c r="B810" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D810" s="65" t="s">
@@ -36114,7 +36110,7 @@
       <c r="F810" s="0"/>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B811" s="77" t="s">
+      <c r="B811" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D811" s="65" t="s">
@@ -36126,7 +36122,7 @@
       <c r="F811" s="0"/>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B812" s="77" t="s">
+      <c r="B812" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D812" s="65" t="s">
@@ -36135,10 +36131,10 @@
       <c r="E812" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="F812" s="78"/>
+      <c r="F812" s="77"/>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B813" s="77" t="s">
+      <c r="B813" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D813" s="65" t="s">
@@ -36147,10 +36143,10 @@
       <c r="E813" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="F813" s="78"/>
+      <c r="F813" s="77"/>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B814" s="77" t="s">
+      <c r="B814" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D814" s="65" t="s">
@@ -36159,10 +36155,10 @@
       <c r="E814" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="F814" s="78"/>
+      <c r="F814" s="77"/>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B815" s="77" t="s">
+      <c r="B815" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D815" s="65" t="s">
@@ -36171,10 +36167,10 @@
       <c r="E815" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="F815" s="78"/>
+      <c r="F815" s="77"/>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B816" s="77" t="s">
+      <c r="B816" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D816" s="65" t="s">
@@ -36183,10 +36179,10 @@
       <c r="E816" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="F816" s="78"/>
+      <c r="F816" s="77"/>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B817" s="77" t="s">
+      <c r="B817" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D817" s="65" t="s">
@@ -36195,10 +36191,10 @@
       <c r="E817" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="F817" s="78"/>
+      <c r="F817" s="77"/>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B818" s="77" t="s">
+      <c r="B818" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D818" s="65" t="s">
@@ -36207,10 +36203,10 @@
       <c r="E818" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="F818" s="78"/>
+      <c r="F818" s="77"/>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B819" s="77" t="s">
+      <c r="B819" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D819" s="65" t="s">
@@ -36219,10 +36215,10 @@
       <c r="E819" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="F819" s="78"/>
+      <c r="F819" s="77"/>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B820" s="77" t="s">
+      <c r="B820" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D820" s="65" t="s">
@@ -36231,10 +36227,10 @@
       <c r="E820" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="F820" s="78"/>
+      <c r="F820" s="77"/>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B821" s="77" t="s">
+      <c r="B821" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D821" s="65" t="s">
@@ -36243,10 +36239,10 @@
       <c r="E821" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="F821" s="78"/>
+      <c r="F821" s="77"/>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B822" s="77" t="s">
+      <c r="B822" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D822" s="65" t="s">
@@ -36255,10 +36251,10 @@
       <c r="E822" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="F822" s="78"/>
+      <c r="F822" s="77"/>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B823" s="77" t="s">
+      <c r="B823" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D823" s="65" t="s">
@@ -36267,10 +36263,10 @@
       <c r="E823" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F823" s="78"/>
+      <c r="F823" s="77"/>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B824" s="77" t="s">
+      <c r="B824" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D824" s="65" t="s">
@@ -36279,10 +36275,10 @@
       <c r="E824" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="F824" s="78"/>
+      <c r="F824" s="77"/>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B825" s="77" t="s">
+      <c r="B825" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D825" s="65" t="s">
@@ -36291,10 +36287,10 @@
       <c r="E825" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="F825" s="78"/>
+      <c r="F825" s="77"/>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B826" s="77" t="s">
+      <c r="B826" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D826" s="65" t="s">
@@ -36303,10 +36299,10 @@
       <c r="E826" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="F826" s="78"/>
+      <c r="F826" s="77"/>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B827" s="77" t="s">
+      <c r="B827" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D827" s="65" t="s">
@@ -36315,10 +36311,10 @@
       <c r="E827" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="F827" s="78"/>
+      <c r="F827" s="77"/>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B828" s="77" t="s">
+      <c r="B828" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D828" s="65" t="s">
@@ -36327,10 +36323,10 @@
       <c r="E828" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="F828" s="78"/>
+      <c r="F828" s="77"/>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B829" s="77" t="s">
+      <c r="B829" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D829" s="65" t="s">
@@ -36339,10 +36335,10 @@
       <c r="E829" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="F829" s="78"/>
+      <c r="F829" s="77"/>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B830" s="77" t="s">
+      <c r="B830" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D830" s="65" t="s">
@@ -36351,10 +36347,10 @@
       <c r="E830" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="F830" s="78"/>
+      <c r="F830" s="77"/>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B831" s="77" t="s">
+      <c r="B831" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D831" s="65" t="s">
@@ -36363,10 +36359,10 @@
       <c r="E831" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="F831" s="78"/>
+      <c r="F831" s="77"/>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B832" s="77" t="s">
+      <c r="B832" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D832" s="65" t="s">
@@ -36375,10 +36371,10 @@
       <c r="E832" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="F832" s="78"/>
+      <c r="F832" s="77"/>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B833" s="77" t="s">
+      <c r="B833" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D833" s="65" t="s">
@@ -36387,10 +36383,10 @@
       <c r="E833" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="F833" s="78"/>
+      <c r="F833" s="77"/>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B834" s="77" t="s">
+      <c r="B834" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D834" s="65" t="s">
@@ -36399,10 +36395,10 @@
       <c r="E834" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="F834" s="78"/>
+      <c r="F834" s="77"/>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B835" s="77" t="s">
+      <c r="B835" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D835" s="65" t="s">
@@ -36411,10 +36407,10 @@
       <c r="E835" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="F835" s="78"/>
+      <c r="F835" s="77"/>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B836" s="77" t="s">
+      <c r="B836" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D836" s="65" t="s">
@@ -36423,10 +36419,10 @@
       <c r="E836" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="F836" s="78"/>
+      <c r="F836" s="77"/>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B837" s="77" t="s">
+      <c r="B837" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D837" s="65" t="s">
@@ -36435,10 +36431,10 @@
       <c r="E837" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="F837" s="78"/>
+      <c r="F837" s="77"/>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B838" s="77" t="s">
+      <c r="B838" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D838" s="65" t="s">
@@ -36447,10 +36443,10 @@
       <c r="E838" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="F838" s="78"/>
+      <c r="F838" s="77"/>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B839" s="77" t="s">
+      <c r="B839" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D839" s="65" t="s">
@@ -36459,10 +36455,10 @@
       <c r="E839" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="F839" s="78"/>
+      <c r="F839" s="77"/>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B840" s="77" t="s">
+      <c r="B840" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D840" s="65" t="s">
@@ -36471,10 +36467,10 @@
       <c r="E840" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="F840" s="78"/>
+      <c r="F840" s="77"/>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B841" s="77" t="s">
+      <c r="B841" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D841" s="65" t="s">
@@ -36483,10 +36479,10 @@
       <c r="E841" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="F841" s="78"/>
+      <c r="F841" s="77"/>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B842" s="77" t="s">
+      <c r="B842" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D842" s="65" t="s">
@@ -36495,10 +36491,10 @@
       <c r="E842" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="F842" s="78"/>
+      <c r="F842" s="77"/>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B843" s="77" t="s">
+      <c r="B843" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D843" s="65" t="s">
@@ -36507,10 +36503,10 @@
       <c r="E843" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="F843" s="78"/>
+      <c r="F843" s="77"/>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B844" s="77" t="s">
+      <c r="B844" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D844" s="65" t="s">
@@ -36519,10 +36515,10 @@
       <c r="E844" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="F844" s="78"/>
+      <c r="F844" s="77"/>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B845" s="77" t="s">
+      <c r="B845" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D845" s="65" t="s">
@@ -36531,10 +36527,10 @@
       <c r="E845" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="F845" s="78"/>
+      <c r="F845" s="77"/>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B846" s="77" t="s">
+      <c r="B846" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D846" s="65" t="s">
@@ -36543,10 +36539,10 @@
       <c r="E846" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="F846" s="78"/>
+      <c r="F846" s="77"/>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B847" s="77" t="s">
+      <c r="B847" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D847" s="65" t="s">
@@ -36555,10 +36551,10 @@
       <c r="E847" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="F847" s="78"/>
+      <c r="F847" s="77"/>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B848" s="77" t="s">
+      <c r="B848" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D848" s="65" t="s">
@@ -36567,10 +36563,10 @@
       <c r="E848" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="F848" s="78"/>
+      <c r="F848" s="77"/>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B849" s="77" t="s">
+      <c r="B849" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D849" s="65" t="s">
@@ -36579,10 +36575,10 @@
       <c r="E849" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F849" s="78"/>
+      <c r="F849" s="77"/>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B850" s="77" t="s">
+      <c r="B850" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D850" s="65" t="s">
@@ -36591,10 +36587,10 @@
       <c r="E850" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="F850" s="78"/>
+      <c r="F850" s="77"/>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B851" s="77" t="s">
+      <c r="B851" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D851" s="65" t="s">
@@ -36603,10 +36599,10 @@
       <c r="E851" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="F851" s="78"/>
+      <c r="F851" s="77"/>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B852" s="77" t="s">
+      <c r="B852" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D852" s="65" t="s">
@@ -36615,10 +36611,10 @@
       <c r="E852" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="F852" s="78"/>
+      <c r="F852" s="77"/>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B853" s="77" t="s">
+      <c r="B853" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D853" s="65" t="s">
@@ -36627,10 +36623,10 @@
       <c r="E853" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="F853" s="78"/>
+      <c r="F853" s="77"/>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B854" s="77" t="s">
+      <c r="B854" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D854" s="65" t="s">
@@ -36639,10 +36635,10 @@
       <c r="E854" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="F854" s="78"/>
+      <c r="F854" s="77"/>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B855" s="77" t="s">
+      <c r="B855" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D855" s="65" t="s">
@@ -36651,10 +36647,10 @@
       <c r="E855" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F855" s="78"/>
+      <c r="F855" s="77"/>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B856" s="77" t="s">
+      <c r="B856" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D856" s="65" t="s">
@@ -36663,10 +36659,10 @@
       <c r="E856" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="F856" s="78"/>
+      <c r="F856" s="77"/>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B857" s="77" t="s">
+      <c r="B857" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D857" s="65" t="s">
@@ -36675,10 +36671,10 @@
       <c r="E857" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="F857" s="78"/>
+      <c r="F857" s="77"/>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B858" s="77" t="s">
+      <c r="B858" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D858" s="65" t="s">
@@ -36687,10 +36683,10 @@
       <c r="E858" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="F858" s="78"/>
+      <c r="F858" s="77"/>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B859" s="77" t="s">
+      <c r="B859" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D859" s="65" t="s">
@@ -36699,10 +36695,10 @@
       <c r="E859" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="F859" s="78"/>
+      <c r="F859" s="77"/>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B860" s="77" t="s">
+      <c r="B860" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D860" s="65" t="s">
@@ -36711,10 +36707,10 @@
       <c r="E860" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="F860" s="78"/>
+      <c r="F860" s="77"/>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B861" s="77" t="s">
+      <c r="B861" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D861" s="65" t="s">
@@ -36723,10 +36719,10 @@
       <c r="E861" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="F861" s="78"/>
+      <c r="F861" s="77"/>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B862" s="77" t="s">
+      <c r="B862" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D862" s="65" t="s">
@@ -36735,10 +36731,10 @@
       <c r="E862" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="F862" s="78"/>
+      <c r="F862" s="77"/>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B863" s="77" t="s">
+      <c r="B863" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D863" s="65" t="s">
@@ -36747,10 +36743,10 @@
       <c r="E863" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="F863" s="78"/>
+      <c r="F863" s="77"/>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B864" s="77" t="s">
+      <c r="B864" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D864" s="65" t="s">
@@ -36759,10 +36755,10 @@
       <c r="E864" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="F864" s="78"/>
+      <c r="F864" s="77"/>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B865" s="77" t="s">
+      <c r="B865" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D865" s="65" t="s">
@@ -36771,10 +36767,10 @@
       <c r="E865" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F865" s="78"/>
+      <c r="F865" s="77"/>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B866" s="77" t="s">
+      <c r="B866" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D866" s="65" t="s">
@@ -36783,10 +36779,10 @@
       <c r="E866" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="F866" s="78"/>
+      <c r="F866" s="77"/>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B867" s="77" t="s">
+      <c r="B867" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D867" s="65" t="s">
@@ -36795,10 +36791,10 @@
       <c r="E867" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="F867" s="78"/>
+      <c r="F867" s="77"/>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B868" s="77" t="s">
+      <c r="B868" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D868" s="65" t="s">
@@ -36807,10 +36803,10 @@
       <c r="E868" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="F868" s="78"/>
+      <c r="F868" s="77"/>
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B869" s="77" t="s">
+      <c r="B869" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D869" s="65" t="s">
@@ -36819,10 +36815,10 @@
       <c r="E869" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="F869" s="78"/>
+      <c r="F869" s="77"/>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B870" s="77" t="s">
+      <c r="B870" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D870" s="65" t="s">
@@ -36831,10 +36827,10 @@
       <c r="E870" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="F870" s="78"/>
+      <c r="F870" s="77"/>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B871" s="77" t="s">
+      <c r="B871" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D871" s="65" t="s">
@@ -36843,10 +36839,10 @@
       <c r="E871" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F871" s="78"/>
+      <c r="F871" s="77"/>
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B872" s="77" t="s">
+      <c r="B872" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D872" s="65" t="s">
@@ -36855,10 +36851,10 @@
       <c r="E872" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="F872" s="78"/>
+      <c r="F872" s="77"/>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B873" s="77" t="s">
+      <c r="B873" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D873" s="65" t="s">
@@ -36867,10 +36863,10 @@
       <c r="E873" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="F873" s="78"/>
+      <c r="F873" s="77"/>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B874" s="77" t="s">
+      <c r="B874" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D874" s="65" t="s">
@@ -36879,10 +36875,10 @@
       <c r="E874" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="F874" s="78"/>
+      <c r="F874" s="77"/>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B875" s="77" t="s">
+      <c r="B875" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D875" s="65" t="s">
@@ -36891,10 +36887,10 @@
       <c r="E875" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="F875" s="78"/>
+      <c r="F875" s="77"/>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B876" s="77" t="s">
+      <c r="B876" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D876" s="65" t="s">
@@ -36903,10 +36899,10 @@
       <c r="E876" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="F876" s="78"/>
+      <c r="F876" s="77"/>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B877" s="77" t="s">
+      <c r="B877" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D877" s="65" t="s">
@@ -36915,10 +36911,10 @@
       <c r="E877" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="F877" s="78"/>
+      <c r="F877" s="77"/>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B878" s="77" t="s">
+      <c r="B878" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D878" s="65" t="s">
@@ -36927,7 +36923,7 @@
       <c r="E878" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="F878" s="78"/>
+      <c r="F878" s="77"/>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B879" s="0" t="s">
@@ -37042,7 +37038,7 @@
       </c>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B887" s="77" t="s">
+      <c r="B887" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D887" s="65" t="s">
@@ -37051,12 +37047,12 @@
       <c r="E887" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="F887" s="78" t="n">
+      <c r="F887" s="77" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B888" s="77" t="s">
+      <c r="B888" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D888" s="65" t="s">
@@ -37065,12 +37061,12 @@
       <c r="E888" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="F888" s="78" t="n">
+      <c r="F888" s="77" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B889" s="77" t="s">
+      <c r="B889" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D889" s="65" t="s">
@@ -37079,12 +37075,12 @@
       <c r="E889" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="F889" s="78" t="n">
+      <c r="F889" s="77" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B890" s="77" t="s">
+      <c r="B890" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D890" s="65" t="s">
@@ -37093,12 +37089,12 @@
       <c r="E890" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="F890" s="78" t="n">
+      <c r="F890" s="77" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B891" s="77" t="s">
+      <c r="B891" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D891" s="65" t="s">
@@ -37107,12 +37103,12 @@
       <c r="E891" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F891" s="78" t="n">
+      <c r="F891" s="77" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B892" s="77" t="s">
+      <c r="B892" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D892" s="65" t="s">
@@ -37121,12 +37117,12 @@
       <c r="E892" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="F892" s="78" t="n">
+      <c r="F892" s="77" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B893" s="77" t="s">
+      <c r="B893" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D893" s="65" t="s">
@@ -37135,12 +37131,12 @@
       <c r="E893" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="F893" s="78" t="n">
+      <c r="F893" s="77" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B894" s="77" t="s">
+      <c r="B894" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D894" s="65" t="s">
@@ -37149,7 +37145,7 @@
       <c r="E894" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="F894" s="78" t="n">
+      <c r="F894" s="77" t="n">
         <v>16</v>
       </c>
     </row>
@@ -37173,90 +37169,90 @@
   </sheetPr>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23:M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>701</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="78" t="s">
         <v>702</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="78" t="s">
         <v>703</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="79" t="s">
         <v>704</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="80" t="s">
         <v>705</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="N1" s="80" t="s">
         <v>155</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="P1" s="78" t="s">
         <v>230</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="R1" s="78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -37273,9 +37269,9 @@
         <v>232</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" s="81" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -37296,9 +37292,9 @@
         <v>232</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" s="81" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -37319,9 +37315,9 @@
         <v>232</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="81" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -37342,9 +37338,9 @@
         <v>232</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="81" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -37365,9 +37361,9 @@
         <v>232</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="81" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -37391,9 +37387,9 @@
         <v>232</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="81" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -37417,13 +37413,13 @@
         <v>232</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="81" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
@@ -37437,16 +37433,16 @@
         <v>202</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
@@ -37463,16 +37459,16 @@
         <v>711</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
@@ -37489,16 +37485,16 @@
         <v>712</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>80</v>
       </c>
@@ -37515,16 +37511,16 @@
         <v>713</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>80</v>
       </c>
@@ -37541,16 +37537,16 @@
         <v>224</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>80</v>
       </c>
@@ -37570,16 +37566,16 @@
         <v>714</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>80</v>
       </c>
@@ -37599,16 +37595,16 @@
         <v>715</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S15" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>80</v>
       </c>
@@ -37628,16 +37624,16 @@
         <v>716</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>80</v>
       </c>
@@ -37654,16 +37650,16 @@
         <v>225</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>80</v>
       </c>
@@ -37683,16 +37679,16 @@
         <v>714</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>80</v>
       </c>
@@ -37712,16 +37708,16 @@
         <v>715</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>80</v>
       </c>
@@ -37741,9 +37737,9 @@
         <v>717</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S20" s="0" t="s">
@@ -37754,7 +37750,7 @@
       <c r="A21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="82" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -37767,12 +37763,12 @@
         <v>232</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R21" s="82" t="n">
+      <c r="R21" s="81" t="n">
         <v>0.9</v>
       </c>
       <c r="S21" s="0" t="s">
@@ -37783,7 +37779,7 @@
       <c r="A22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="83" t="s">
         <v>120</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -37801,14 +37797,14 @@
       <c r="Q22" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R22" s="82" t="n">
+      <c r="R22" s="81" t="n">
         <v>0.9</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>117</v>
       </c>
@@ -37824,16 +37820,16 @@
       <c r="I23" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J23" s="85" t="s">
+      <c r="J23" s="84" t="s">
         <v>718</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R23" s="82" t="n">
+      <c r="R23" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S23" s="0" t="s">
@@ -37856,23 +37852,23 @@
       <c r="I24" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="J24" s="85" t="s">
+      <c r="J24" s="84" t="s">
         <v>719</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R24" s="82" t="n">
+      <c r="R24" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S24" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>117</v>
       </c>
@@ -37892,19 +37888,19 @@
         <v>720</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R25" s="82" t="n">
+      <c r="R25" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S25" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>117</v>
       </c>
@@ -37920,23 +37916,23 @@
       <c r="I26" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J26" s="85" t="s">
+      <c r="J26" s="84" t="s">
         <v>721</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R26" s="82" t="n">
+      <c r="R26" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>117</v>
       </c>
@@ -37952,23 +37948,23 @@
       <c r="I27" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J27" s="85" t="s">
+      <c r="J27" s="84" t="s">
         <v>718</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R27" s="82" t="n">
+      <c r="R27" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S27" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>117</v>
       </c>
@@ -37984,16 +37980,16 @@
       <c r="I28" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J28" s="85" t="s">
+      <c r="J28" s="84" t="s">
         <v>721</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R28" s="82" t="n">
+      <c r="R28" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S28" s="0" t="s">
@@ -38016,23 +38012,23 @@
       <c r="I29" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="J29" s="85" t="s">
+      <c r="J29" s="84" t="s">
         <v>719</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R29" s="82" t="n">
+      <c r="R29" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S29" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>117</v>
       </c>
@@ -38048,16 +38044,16 @@
       <c r="I30" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J30" s="85" t="s">
+      <c r="J30" s="84" t="s">
         <v>718</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R30" s="82" t="n">
+      <c r="R30" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S30" s="0" t="s">
@@ -38080,23 +38076,23 @@
       <c r="I31" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="J31" s="85" t="s">
+      <c r="J31" s="84" t="s">
         <v>719</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R31" s="82" t="n">
+      <c r="R31" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S31" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>117</v>
       </c>
@@ -38116,19 +38112,19 @@
         <v>720</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R32" s="82" t="n">
+      <c r="R32" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S32" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>117</v>
       </c>
@@ -38144,16 +38140,16 @@
       <c r="I33" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J33" s="85" t="s">
+      <c r="J33" s="84" t="s">
         <v>721</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R33" s="82" t="n">
+      <c r="R33" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S33" s="0" t="s">
@@ -38164,7 +38160,7 @@
       <c r="A34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="82" t="s">
         <v>142</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -38177,12 +38173,12 @@
         <v>232</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R34" s="82" t="n">
+      <c r="R34" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S34" s="0" t="s">
@@ -38206,12 +38202,12 @@
         <v>232</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R35" s="82" t="n">
+      <c r="R35" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S35" s="0" t="s">
@@ -38235,12 +38231,12 @@
         <v>232</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R36" s="82" t="n">
+      <c r="R36" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S36" s="0" t="s">
@@ -38264,12 +38260,12 @@
         <v>232</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R37" s="82" t="n">
+      <c r="R37" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S37" s="0" t="s">
@@ -38293,12 +38289,12 @@
         <v>232</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R38" s="82" t="n">
+      <c r="R38" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S38" s="0" t="s">
@@ -38322,12 +38318,12 @@
         <v>232</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R39" s="82" t="n">
+      <c r="R39" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S39" s="0" t="s">
@@ -38351,12 +38347,12 @@
         <v>232</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R40" s="82" t="n">
+      <c r="R40" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S40" s="0" t="s">
@@ -38380,23 +38376,23 @@
         <v>232</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R41" s="82" t="n">
+      <c r="R41" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S41" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="71" t="s">
         <v>159</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -38406,23 +38402,23 @@
         <v>207</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R42" s="82" t="n">
+      <c r="R42" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S42" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="71" t="s">
         <v>160</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -38435,23 +38431,23 @@
         <v>726</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R43" s="82" t="n">
+      <c r="R43" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S43" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="71" t="s">
         <v>161</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -38464,23 +38460,23 @@
         <v>727</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R44" s="82" t="n">
+      <c r="R44" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S44" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="71" t="s">
         <v>162</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -38493,23 +38489,23 @@
         <v>728</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R45" s="82" t="n">
+      <c r="R45" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S45" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="71" t="s">
         <v>163</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -38522,23 +38518,23 @@
         <v>236</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R46" s="82" t="n">
+      <c r="R46" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S46" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="71" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -38551,23 +38547,23 @@
         <v>726</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R47" s="82" t="n">
+      <c r="R47" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S47" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="71" t="s">
         <v>167</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -38580,23 +38576,23 @@
         <v>727</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R48" s="82" t="n">
+      <c r="R48" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S48" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="71" t="s">
         <v>168</v>
       </c>
       <c r="C49" s="17" t="s">
@@ -38609,23 +38605,23 @@
         <v>728</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R49" s="82" t="n">
+      <c r="R49" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S49" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="71" t="s">
         <v>169</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -38638,23 +38634,23 @@
         <v>236</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R50" s="82" t="n">
+      <c r="R50" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S50" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="71" t="s">
         <v>171</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -38670,23 +38666,23 @@
         <v>730</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R51" s="82" t="n">
+      <c r="R51" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S51" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="71" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -38702,23 +38698,23 @@
         <v>731</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R52" s="82" t="n">
+      <c r="R52" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S52" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="71" t="s">
         <v>173</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -38734,19 +38730,19 @@
         <v>732</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R53" s="82" t="n">
+      <c r="R53" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S53" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>156</v>
       </c>
@@ -38766,19 +38762,19 @@
         <v>733</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R54" s="82" t="n">
+      <c r="R54" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S54" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>156</v>
       </c>
@@ -38798,19 +38794,19 @@
         <v>734</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R55" s="82" t="n">
+      <c r="R55" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S55" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>156</v>
       </c>
@@ -38830,19 +38826,19 @@
         <v>735</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="R56" s="82" t="n">
+      <c r="R56" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S56" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>117</v>
       </c>
@@ -38859,7 +38855,7 @@
         <v>232</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>189</v>
@@ -38867,18 +38863,18 @@
       <c r="Q57" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="R57" s="82" t="n">
+      <c r="R57" s="81" t="n">
         <v>0.9</v>
       </c>
       <c r="S57" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="85" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="61" t="s">
@@ -38894,20 +38890,20 @@
         <v>232</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R58" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S58" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="85" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="61" t="s">
@@ -38923,16 +38919,16 @@
         <v>232</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R59" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S59" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>14</v>
       </c>
@@ -38955,20 +38951,20 @@
         <v>738</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S60" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="87" t="s">
+      <c r="B61" s="86" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="61" t="s">
@@ -38987,20 +38983,20 @@
         <v>739</v>
       </c>
       <c r="M61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S61" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="87" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="61" t="s">
@@ -39014,16 +39010,16 @@
         <v>232</v>
       </c>
       <c r="M62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R62" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S62" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>14</v>
       </c>
@@ -39044,9 +39040,9 @@
         <v>740</v>
       </c>
       <c r="M63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R63" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" s="81" t="n">
         <v>0.75</v>
       </c>
       <c r="S63" s="0" t="s">
